--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="91">
   <si>
     <t>REMISION</t>
   </si>
@@ -437,6 +437,12 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE   JUNIO        2 0 2 2</t>
+  </si>
+  <si>
+    <t>NORMA LEDO  ( CENTRAL )</t>
+  </si>
+  <si>
+    <t>GRACIELA LEDO</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,6 +1334,9 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="3" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,13 +1376,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="7" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="7" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2875,24 +2887,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4038,12 +4050,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="162">
+      <c r="D55" s="165">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="163"/>
-      <c r="F55" s="164"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="167"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4057,11 +4069,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="165" t="s">
+      <c r="D57" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="168"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4190,25 +4202,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="172" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4239,91 +4251,131 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12">
+        <v>44712</v>
+      </c>
       <c r="B4" s="13">
         <v>374</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="15">
+        <v>11152</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H43" si="0">E4-G4</f>
-        <v>0</v>
+        <v>11152</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12">
+        <v>44712</v>
+      </c>
       <c r="B5" s="13">
         <v>375</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="20">
+        <v>400</v>
+      </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12">
+        <v>44713</v>
+      </c>
       <c r="B6" s="13">
         <v>376</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2165</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="23">
+        <v>44714</v>
+      </c>
       <c r="B7" s="13">
         <v>377</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="20">
+        <v>68701</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68701</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="81">
+        <v>44714</v>
+      </c>
       <c r="B8" s="13">
         <v>378</v>
       </c>
       <c r="C8" s="82"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="20">
+        <v>42624</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42624</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>44715</v>
+      </c>
       <c r="B9" s="13">
         <v>379</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="20">
+        <v>4438</v>
+      </c>
+      <c r="F9" s="21">
+        <v>44715</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4438</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4839,16 +4891,16 @@
       <c r="D44" s="2"/>
       <c r="E44" s="39">
         <f>SUM(E4:E43)</f>
-        <v>0</v>
+        <v>129480</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39">
         <f>SUM(G4:G43)</f>
-        <v>0</v>
+        <v>4438</v>
       </c>
       <c r="H44" s="40">
         <f>SUM(H4:H43)</f>
-        <v>0</v>
+        <v>125042</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -4890,12 +4942,12 @@
       <c r="B48" s="37"/>
       <c r="C48" s="38"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="162">
+      <c r="E48" s="165">
         <f>E44-G44</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="163"/>
-      <c r="G48" s="164"/>
+        <v>125042</v>
+      </c>
+      <c r="F48" s="166"/>
+      <c r="G48" s="167"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4911,11 +4963,11 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="165" t="s">
+      <c r="E50" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5167,25 +5219,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="168"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="171"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6915,12 +6967,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="162">
+      <c r="E76" s="165">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="163"/>
-      <c r="G76" s="164"/>
+      <c r="F76" s="166"/>
+      <c r="G76" s="167"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6936,11 +6988,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="165" t="s">
+      <c r="E78" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="165"/>
-      <c r="G78" s="165"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="168"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -7081,25 +7133,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="168"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="171"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7948,12 +8000,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="162">
+      <c r="E41" s="165">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="163"/>
-      <c r="G41" s="164"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="167"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7969,11 +8021,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="165" t="s">
+      <c r="E43" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8117,25 +8169,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9475,12 +9527,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="162">
+      <c r="E60" s="165">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="163"/>
-      <c r="G60" s="164"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="167"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -9496,11 +9548,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="165" t="s">
+      <c r="E62" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -9641,25 +9693,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="172" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11060,12 +11112,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="162">
+      <c r="E61" s="165">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="163"/>
-      <c r="G61" s="164"/>
+      <c r="F61" s="166"/>
+      <c r="G61" s="167"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -11081,11 +11133,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="165" t="s">
+      <c r="E63" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -11226,25 +11278,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12694,12 +12746,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="162">
+      <c r="E64" s="165">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="163"/>
-      <c r="G64" s="164"/>
+      <c r="F64" s="166"/>
+      <c r="G64" s="167"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -12715,11 +12767,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="165" t="s">
+      <c r="E66" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="168"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -12860,25 +12912,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14279,12 +14331,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="162">
+      <c r="E65" s="165">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="163"/>
-      <c r="G65" s="164"/>
+      <c r="F65" s="166"/>
+      <c r="G65" s="167"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -14300,11 +14352,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="165" t="s">
+      <c r="E67" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
+      <c r="F67" s="168"/>
+      <c r="G67" s="168"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -14468,8 +14520,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14486,25 +14538,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="174"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14548,8 +14600,8 @@
       <c r="E4" s="15">
         <v>9440</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H38" si="0">E4-G4</f>
         <v>9440</v>
@@ -14564,7 +14616,7 @@
         <v>341</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="20">
@@ -14641,8 +14693,8 @@
       <c r="E8" s="20">
         <v>129286</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>129286</v>
@@ -14662,8 +14714,8 @@
       <c r="E9" s="20">
         <v>65178</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>65178</v>
@@ -14683,8 +14735,8 @@
       <c r="E10" s="20">
         <v>9568</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>9568</v>
@@ -14704,8 +14756,8 @@
       <c r="E11" s="20">
         <v>22022</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>22022</v>
@@ -14725,8 +14777,8 @@
       <c r="E12" s="20">
         <v>10275</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>10275</v>
@@ -14746,8 +14798,8 @@
       <c r="E13" s="20">
         <v>12858</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
         <v>12858</v>
@@ -14817,8 +14869,8 @@
       <c r="E16" s="20">
         <v>31898</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
         <v>31898</v>
@@ -14884,8 +14936,8 @@
       <c r="E19" s="20">
         <v>80</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -14905,8 +14957,8 @@
       <c r="E20" s="20">
         <v>9963</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
         <v>9963</v>
@@ -14926,8 +14978,8 @@
       <c r="E21" s="20">
         <v>1273</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
         <v>1273</v>
@@ -14972,8 +15024,8 @@
       <c r="E23" s="20">
         <v>29340</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>29340</v>
@@ -15043,11 +15095,15 @@
       <c r="E26" s="20">
         <v>27353</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="85">
+        <v>44714</v>
+      </c>
+      <c r="G26" s="86">
+        <v>27353</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>27353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15089,8 +15145,8 @@
       <c r="E28" s="20">
         <v>132</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
         <v>132</v>
@@ -15160,11 +15216,15 @@
       <c r="E31" s="20">
         <v>1412</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="85">
+        <v>44713</v>
+      </c>
+      <c r="G31" s="86">
+        <v>1412</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>1412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15181,8 +15241,8 @@
       <c r="E32" s="20">
         <v>11890</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="18">
         <v>0</v>
       </c>
@@ -15225,8 +15285,8 @@
       <c r="E34" s="20">
         <v>1140</v>
       </c>
-      <c r="F34" s="125"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="18">
         <v>0</v>
       </c>
@@ -15270,8 +15330,8 @@
       <c r="E36" s="20">
         <v>1843</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
         <v>1843</v>
@@ -15329,11 +15389,11 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39">
         <f>SUM(G4:G38)</f>
-        <v>114832</v>
+        <v>143597</v>
       </c>
       <c r="H39" s="40">
         <f>SUM(H4:H38)</f>
-        <v>361921</v>
+        <v>333156</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -15375,12 +15435,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="162">
+      <c r="E43" s="165">
         <f>E39-G39</f>
-        <v>374951</v>
-      </c>
-      <c r="F43" s="163"/>
-      <c r="G43" s="164"/>
+        <v>346186</v>
+      </c>
+      <c r="F43" s="166"/>
+      <c r="G43" s="167"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -15396,11 +15456,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="165" t="s">
+      <c r="E45" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="165"/>
-      <c r="G45" s="165"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -15586,18 +15646,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="172"/>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
+      <c r="A1" s="175"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -16451,7 +16511,7 @@
       <c r="R22" s="147">
         <v>50646.16</v>
       </c>
-      <c r="S22" s="174">
+      <c r="S22" s="161">
         <f>P22-R22</f>
         <v>12116.39</v>
       </c>
@@ -16529,22 +16589,22 @@
     <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="175">
+      <c r="K39" s="162">
         <v>12116.39</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="176">
+      <c r="K40" s="163">
         <v>46744</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="176">
+      <c r="K41" s="163">
         <v>14500.7</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K42" s="176">
+      <c r="K42" s="163">
         <v>41351.199999999997</v>
       </c>
     </row>
@@ -16557,7 +16617,7 @@
       <c r="F43" s="121"/>
       <c r="G43" s="121"/>
       <c r="H43" s="121"/>
-      <c r="K43" s="176">
+      <c r="K43" s="163">
         <v>5624</v>
       </c>
     </row>
@@ -16572,7 +16632,7 @@
       <c r="H44" s="121"/>
       <c r="I44" s="101"/>
       <c r="J44" s="137"/>
-      <c r="K44" s="176">
+      <c r="K44" s="163">
         <v>45618</v>
       </c>
       <c r="L44" s="60"/>
@@ -16588,7 +16648,7 @@
       <c r="H45" s="121"/>
       <c r="I45" s="101"/>
       <c r="J45" s="137"/>
-      <c r="K45" s="176">
+      <c r="K45" s="163">
         <v>35193.4</v>
       </c>
       <c r="L45" s="60"/>
@@ -16604,7 +16664,7 @@
       <c r="H46" s="121"/>
       <c r="I46" s="101"/>
       <c r="J46" s="137"/>
-      <c r="K46" s="176">
+      <c r="K46" s="163">
         <v>69268.88</v>
       </c>
       <c r="L46" s="60"/>
@@ -16620,7 +16680,7 @@
       <c r="H47" s="121"/>
       <c r="I47" s="101"/>
       <c r="J47" s="137"/>
-      <c r="K47" s="176">
+      <c r="K47" s="163">
         <v>25197.4</v>
       </c>
       <c r="L47" s="60"/>
@@ -16636,7 +16696,7 @@
       <c r="H48" s="121"/>
       <c r="I48" s="101"/>
       <c r="J48" s="137"/>
-      <c r="K48" s="176">
+      <c r="K48" s="163">
         <v>58580.5</v>
       </c>
       <c r="L48" s="60"/>
@@ -16652,7 +16712,7 @@
       <c r="H49" s="121"/>
       <c r="I49" s="101"/>
       <c r="J49" s="137"/>
-      <c r="K49" s="176">
+      <c r="K49" s="163">
         <v>8932</v>
       </c>
       <c r="L49" s="60"/>
@@ -16668,7 +16728,7 @@
       <c r="H50" s="121"/>
       <c r="I50" s="101"/>
       <c r="J50" s="137"/>
-      <c r="K50" s="176">
+      <c r="K50" s="163">
         <v>51784.4</v>
       </c>
       <c r="L50" s="60"/>
@@ -16684,7 +16744,7 @@
       <c r="H51" s="121"/>
       <c r="I51" s="101"/>
       <c r="J51" s="137"/>
-      <c r="K51" s="175">
+      <c r="K51" s="162">
         <v>15291.4</v>
       </c>
       <c r="L51" s="60"/>
@@ -16700,7 +16760,7 @@
       <c r="H52" s="121"/>
       <c r="I52" s="101"/>
       <c r="J52" s="137"/>
-      <c r="K52" s="175">
+      <c r="K52" s="162">
         <v>66691.399999999994</v>
       </c>
       <c r="L52" s="60"/>
@@ -16716,7 +16776,7 @@
       <c r="H53" s="121"/>
       <c r="I53" s="101"/>
       <c r="J53" s="137"/>
-      <c r="K53" s="175">
+      <c r="K53" s="162">
         <v>70251.75</v>
       </c>
       <c r="L53" s="60"/>
@@ -16732,7 +16792,7 @@
       <c r="H54" s="121"/>
       <c r="I54" s="101"/>
       <c r="J54" s="137"/>
-      <c r="K54" s="175">
+      <c r="K54" s="162">
         <v>13507</v>
       </c>
       <c r="L54" s="60"/>
@@ -16748,7 +16808,7 @@
       <c r="H55" s="121"/>
       <c r="I55" s="101"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="175">
+      <c r="K55" s="162">
         <v>494</v>
       </c>
       <c r="L55" s="60"/>
@@ -16764,7 +16824,7 @@
       <c r="H56" s="121"/>
       <c r="I56" s="101"/>
       <c r="J56" s="137"/>
-      <c r="K56" s="175">
+      <c r="K56" s="162">
         <v>66113.67</v>
       </c>
       <c r="L56" s="60"/>
@@ -16780,7 +16840,7 @@
       <c r="H57" s="121"/>
       <c r="I57" s="101"/>
       <c r="J57" s="137"/>
-      <c r="K57" s="175">
+      <c r="K57" s="162">
         <v>907.2</v>
       </c>
       <c r="L57" s="60"/>
@@ -16796,7 +16856,7 @@
       <c r="H58" s="121"/>
       <c r="I58" s="101"/>
       <c r="J58" s="137"/>
-      <c r="K58" s="175">
+      <c r="K58" s="162">
         <v>1956</v>
       </c>
       <c r="L58" s="60"/>
@@ -16812,25 +16872,25 @@
       <c r="H59" s="121"/>
       <c r="I59" s="101"/>
       <c r="J59" s="137"/>
-      <c r="K59" s="175">
+      <c r="K59" s="162">
         <v>48025.599999999999</v>
       </c>
       <c r="L59" s="60"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K60" s="175">
+      <c r="K60" s="162">
         <v>133204.96</v>
       </c>
       <c r="L60" s="60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K61" s="175">
+      <c r="K61" s="162">
         <v>19133.36</v>
       </c>
       <c r="L61" s="129"/>
     </row>
     <row r="62" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K62" s="175">
+      <c r="K62" s="162">
         <v>0</v>
       </c>
       <c r="L62" s="121"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="91">
   <si>
     <t>REMISION</t>
   </si>
@@ -1337,6 +1337,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,12 +1386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="7" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2887,24 +2887,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="171"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="173"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4050,12 +4050,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="165">
+      <c r="D55" s="167">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="166"/>
-      <c r="F55" s="167"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="169"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4069,11 +4069,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="168" t="s">
+      <c r="D57" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="168"/>
-      <c r="F57" s="168"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4184,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4202,25 +4202,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4307,11 +4307,15 @@
       <c r="E6" s="20">
         <v>2165</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21">
+        <v>44720</v>
+      </c>
+      <c r="G6" s="22">
+        <v>2165</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>2165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4382,63 +4386,87 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12">
+        <v>44718</v>
+      </c>
       <c r="B10" s="13">
         <v>380</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="20">
+        <v>12024</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12024</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12">
+        <v>44720</v>
+      </c>
       <c r="B11" s="13">
         <v>381</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="20">
+        <v>21279</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21279</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12">
+        <v>44720</v>
+      </c>
       <c r="B12" s="13">
         <v>382</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1031</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>44721</v>
+      </c>
       <c r="B13" s="13">
         <v>383</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="20">
+        <v>8935</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4891,16 +4919,16 @@
       <c r="D44" s="2"/>
       <c r="E44" s="39">
         <f>SUM(E4:E43)</f>
-        <v>129480</v>
+        <v>172749</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39">
         <f>SUM(G4:G43)</f>
-        <v>4438</v>
+        <v>6603</v>
       </c>
       <c r="H44" s="40">
         <f>SUM(H4:H43)</f>
-        <v>125042</v>
+        <v>166146</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -4942,12 +4970,12 @@
       <c r="B48" s="37"/>
       <c r="C48" s="38"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="165">
+      <c r="E48" s="167">
         <f>E44-G44</f>
-        <v>125042</v>
-      </c>
-      <c r="F48" s="166"/>
-      <c r="G48" s="167"/>
+        <v>166146</v>
+      </c>
+      <c r="F48" s="168"/>
+      <c r="G48" s="169"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4963,11 +4991,11 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="168" t="s">
+      <c r="E50" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5219,25 +5247,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6967,12 +6995,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="165">
+      <c r="E76" s="167">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="166"/>
-      <c r="G76" s="167"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="169"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6988,11 +7016,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="168" t="s">
+      <c r="E78" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="168"/>
-      <c r="G78" s="168"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -7133,25 +7161,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8000,12 +8028,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="165">
+      <c r="E41" s="167">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="166"/>
-      <c r="G41" s="167"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="169"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -8021,11 +8049,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="168" t="s">
+      <c r="E43" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8169,25 +8197,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9527,12 +9555,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="165">
+      <c r="E60" s="167">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="166"/>
-      <c r="G60" s="167"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="169"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -9548,11 +9576,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="168" t="s">
+      <c r="E62" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -9693,25 +9721,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11112,12 +11140,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="165">
+      <c r="E61" s="167">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="166"/>
-      <c r="G61" s="167"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="169"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -11133,11 +11161,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="168" t="s">
+      <c r="E63" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
+      <c r="F63" s="170"/>
+      <c r="G63" s="170"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -11278,25 +11306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12746,12 +12774,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="165">
+      <c r="E64" s="167">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="166"/>
-      <c r="G64" s="167"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="169"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -12767,11 +12795,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="168" t="s">
+      <c r="E66" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="168"/>
-      <c r="G66" s="168"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="170"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -12912,25 +12940,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14331,12 +14359,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="165">
+      <c r="E65" s="167">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="166"/>
-      <c r="G65" s="167"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="169"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -14352,11 +14380,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="168" t="s">
+      <c r="E67" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="168"/>
-      <c r="G67" s="168"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -14538,25 +14566,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14600,7 +14628,7 @@
       <c r="E4" s="15">
         <v>9440</v>
       </c>
-      <c r="F4" s="180"/>
+      <c r="F4" s="165"/>
       <c r="G4" s="163"/>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H38" si="0">E4-G4</f>
@@ -15285,7 +15313,7 @@
       <c r="E34" s="20">
         <v>1140</v>
       </c>
-      <c r="F34" s="179"/>
+      <c r="F34" s="164"/>
       <c r="G34" s="86"/>
       <c r="H34" s="18">
         <v>0</v>
@@ -15435,12 +15463,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="165">
+      <c r="E43" s="167">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="166"/>
-      <c r="G43" s="167"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="169"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -15456,11 +15484,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="168" t="s">
+      <c r="E45" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -15623,8 +15651,8 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -15646,18 +15674,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="175"/>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
+      <c r="A1" s="177"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -16896,11 +16924,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="177">
+      <c r="K63" s="179">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="178"/>
+      <c r="L63" s="180"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="91">
   <si>
     <t>REMISION</t>
   </si>
@@ -4184,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4470,33 +4470,45 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>44722</v>
+      </c>
       <c r="B14" s="13">
         <v>384</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="20">
+        <v>11919</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11919</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>44723</v>
+      </c>
       <c r="B15" s="13">
         <v>385</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="20">
+        <v>41552</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41552</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4919,7 +4931,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="39">
         <f>SUM(E4:E43)</f>
-        <v>172749</v>
+        <v>226220</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39">
@@ -4928,7 +4940,7 @@
       </c>
       <c r="H44" s="40">
         <f>SUM(H4:H43)</f>
-        <v>166146</v>
+        <v>219617</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -4972,7 +4984,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="167">
         <f>E44-G44</f>
-        <v>166146</v>
+        <v>219617</v>
       </c>
       <c r="F48" s="168"/>
       <c r="G48" s="169"/>
@@ -15651,7 +15663,7 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="REMISIONES  MAYO   2022   " sheetId="14" r:id="rId8"/>
     <sheet name="DEPOSITOS   ODELPA   Y  NORMA L" sheetId="8" r:id="rId9"/>
     <sheet name="  REMISIONES   JUNIO  2022   " sheetId="5" r:id="rId10"/>
-    <sheet name="Hoja6" sheetId="17" r:id="rId11"/>
+    <sheet name="DEPOSITOS A NORMA LEDO  central" sheetId="17" r:id="rId11"/>
     <sheet name="Hoja2" sheetId="9" r:id="rId12"/>
     <sheet name="Hoja5" sheetId="10" r:id="rId13"/>
     <sheet name="Hoja4" sheetId="16" r:id="rId14"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="93">
   <si>
     <t>REMISION</t>
   </si>
@@ -443,6 +443,25 @@
   </si>
   <si>
     <t>GRACIELA LEDO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEPOSITOS  ZAVALETA   A     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF990033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Norma Ledo (central )</t>
+    </r>
+  </si>
+  <si>
+    <t>NORMA LEDO</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1019,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1388,6 +1407,27 @@
     <xf numFmtId="7" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1397,10 +1437,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF990033"/>
@@ -1636,6 +1676,139 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector recto 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="13487400"/>
+          <a:ext cx="7467600" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>974913</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>694765</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>11209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector angular 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2482942" y="9047911"/>
+          <a:ext cx="10191194" cy="6158752"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17037"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517351</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="9115425"/>
+          <a:ext cx="8146877" cy="10001250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4184,8 +4357,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5167,13 +5340,965 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="114"/>
+    <col min="2" max="2" width="15.140625" style="114" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="114" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="114" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="114" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="114"/>
+    <col min="10" max="10" width="14.85546875" style="138" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="115" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="142"/>
+    <col min="14" max="15" width="11.42578125" style="114"/>
+    <col min="16" max="16" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="114"/>
+    <col min="18" max="18" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="114"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="177"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+    </row>
+    <row r="2" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="190" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="121"/>
+    </row>
+    <row r="3" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="101"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="121"/>
+    </row>
+    <row r="4" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="130">
+        <v>44720</v>
+      </c>
+      <c r="C4" s="135">
+        <v>44722</v>
+      </c>
+      <c r="D4" s="131">
+        <v>45730</v>
+      </c>
+      <c r="E4" s="131">
+        <f>D4</f>
+        <v>45730</v>
+      </c>
+      <c r="I4" s="101"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="121"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="130">
+        <v>44721</v>
+      </c>
+      <c r="C5" s="136">
+        <v>44722</v>
+      </c>
+      <c r="D5" s="20">
+        <v>44700</v>
+      </c>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>90430</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="121"/>
+    </row>
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="130">
+        <v>44722</v>
+      </c>
+      <c r="C6" s="136">
+        <v>44725</v>
+      </c>
+      <c r="D6" s="20">
+        <v>45943</v>
+      </c>
+      <c r="E6" s="20">
+        <f>E5+D6</f>
+        <v>136373</v>
+      </c>
+      <c r="I6" s="101"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="121"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="130">
+        <v>44723</v>
+      </c>
+      <c r="C7" s="136">
+        <v>44725</v>
+      </c>
+      <c r="D7" s="20">
+        <v>16613.5</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" ref="E7:E22" si="0">E6+D7</f>
+        <v>152986.5</v>
+      </c>
+      <c r="I7" s="101"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="121"/>
+    </row>
+    <row r="8" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="130">
+        <v>44724</v>
+      </c>
+      <c r="C8" s="136">
+        <v>44725</v>
+      </c>
+      <c r="D8" s="20">
+        <v>17154</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>170140.5</v>
+      </c>
+      <c r="I8" s="101"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="121"/>
+    </row>
+    <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="130">
+        <v>44725</v>
+      </c>
+      <c r="C9" s="136">
+        <v>44728</v>
+      </c>
+      <c r="D9" s="20">
+        <v>50350</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>220490.5</v>
+      </c>
+      <c r="I9" s="101"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="121"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="130">
+        <v>44726</v>
+      </c>
+      <c r="C10" s="136">
+        <v>44728</v>
+      </c>
+      <c r="D10" s="20">
+        <v>44920</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>265410.5</v>
+      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="121"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="130">
+        <v>44727</v>
+      </c>
+      <c r="C11" s="136">
+        <v>44728</v>
+      </c>
+      <c r="D11" s="20">
+        <v>36290.5</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>301701</v>
+      </c>
+      <c r="I11" s="101"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="121"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="130">
+        <v>44728</v>
+      </c>
+      <c r="C12" s="136">
+        <v>44732</v>
+      </c>
+      <c r="D12" s="20">
+        <v>49576</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>351277</v>
+      </c>
+      <c r="I12" s="101"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="121"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="130">
+        <v>44729</v>
+      </c>
+      <c r="C13" s="136">
+        <v>44732</v>
+      </c>
+      <c r="D13" s="22">
+        <v>48123</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>399400</v>
+      </c>
+      <c r="I13" s="101"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="121"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="130">
+        <v>44730</v>
+      </c>
+      <c r="C14" s="136">
+        <v>44732</v>
+      </c>
+      <c r="D14" s="20">
+        <v>66300</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>465700</v>
+      </c>
+      <c r="I14" s="101"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="121"/>
+    </row>
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="130">
+        <v>44731</v>
+      </c>
+      <c r="C15" s="136">
+        <v>44732</v>
+      </c>
+      <c r="D15" s="20">
+        <v>75117</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="I15" s="101"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="121"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="130"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="I16" s="101"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="121"/>
+    </row>
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="130"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="I17" s="101"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="121"/>
+    </row>
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="130"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="I18" s="101"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="121"/>
+    </row>
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="130"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="I19" s="101"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="185"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="121"/>
+    </row>
+    <row r="20" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="121"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="184"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="185"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="121"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="121"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="121"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="121"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="160">
+        <f t="shared" si="0"/>
+        <v>540817</v>
+      </c>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="185"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="129"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="121"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="189"/>
+      <c r="S23" s="121"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="121"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="121"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22">
+        <v>850487.81</v>
+      </c>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+    </row>
+    <row r="26" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+    </row>
+    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K42" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="121"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="K43" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="163">
+        <v>0</v>
+      </c>
+      <c r="L44" s="60"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="121"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="163">
+        <v>0</v>
+      </c>
+      <c r="L45" s="60"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="163">
+        <v>0</v>
+      </c>
+      <c r="L46" s="60"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="121"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="163">
+        <v>0</v>
+      </c>
+      <c r="L47" s="60"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="121"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="163">
+        <v>0</v>
+      </c>
+      <c r="L48" s="60"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="121"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="121"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="163">
+        <v>0</v>
+      </c>
+      <c r="L49" s="60"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="121"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="163">
+        <v>0</v>
+      </c>
+      <c r="L50" s="60"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="121"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="163">
+        <v>0</v>
+      </c>
+      <c r="L51" s="60"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="121"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="163">
+        <v>0</v>
+      </c>
+      <c r="L52" s="60"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="121"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="163">
+        <v>0</v>
+      </c>
+      <c r="L53" s="60"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="163">
+        <v>0</v>
+      </c>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="163">
+        <v>0</v>
+      </c>
+      <c r="L55" s="60"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="121"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="163">
+        <v>0</v>
+      </c>
+      <c r="L56" s="60"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="121"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="163">
+        <v>0</v>
+      </c>
+      <c r="L57" s="60"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="121"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="163">
+        <v>0</v>
+      </c>
+      <c r="L58" s="60"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="121"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="163">
+        <v>0</v>
+      </c>
+      <c r="L59" s="60"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K60" s="163">
+        <v>0</v>
+      </c>
+      <c r="L60" s="60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K61" s="163">
+        <v>0</v>
+      </c>
+      <c r="L61" s="129"/>
+    </row>
+    <row r="62" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K62" s="162">
+        <v>0</v>
+      </c>
+      <c r="L62" s="121"/>
+    </row>
+    <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K63" s="179">
+        <f>SUM(K39:K62)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="180"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K63:L63"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15663,8 +16788,8 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="93">
   <si>
     <t>REMISION</t>
   </si>
@@ -1362,6 +1362,27 @@
     <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,27 +1428,6 @@
     <xf numFmtId="7" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3060,24 +3060,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4223,12 +4223,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="167">
+      <c r="D55" s="178">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="168"/>
-      <c r="F55" s="169"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="180"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4242,11 +4242,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="170" t="s">
+      <c r="D57" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="181"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4357,8 +4357,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4375,25 +4375,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="185" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="187"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4614,11 +4614,15 @@
       <c r="E12" s="20">
         <v>1031</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="21">
+        <v>44727</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1031</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>1031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4685,28 +4689,40 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>44727</v>
+      </c>
       <c r="B16" s="13">
         <v>386</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1191</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12">
+        <v>44728</v>
+      </c>
       <c r="B17" s="13">
         <v>387</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
@@ -4715,58 +4731,82 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>44728</v>
+      </c>
       <c r="B18" s="13">
         <v>388</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="20">
+        <v>63711</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63711</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>44728</v>
+      </c>
       <c r="B19" s="13">
         <v>389</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="20">
+        <v>8500</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>44729</v>
+      </c>
       <c r="B20" s="13">
         <v>390</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="20">
+        <v>6673</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>44730</v>
+      </c>
       <c r="B21" s="13">
         <v>391</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="18">
@@ -4775,18 +4815,24 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44730</v>
+      </c>
       <c r="B22" s="13">
         <v>392</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="20">
+        <v>12311</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -5104,16 +5150,16 @@
       <c r="D44" s="2"/>
       <c r="E44" s="39">
         <f>SUM(E4:E43)</f>
-        <v>226220</v>
+        <v>318606</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39">
         <f>SUM(G4:G43)</f>
-        <v>6603</v>
+        <v>7634</v>
       </c>
       <c r="H44" s="40">
         <f>SUM(H4:H43)</f>
-        <v>219617</v>
+        <v>310972</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -5155,12 +5201,12 @@
       <c r="B48" s="37"/>
       <c r="C48" s="38"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="167">
+      <c r="E48" s="178">
         <f>E44-G44</f>
-        <v>219617</v>
-      </c>
-      <c r="F48" s="168"/>
-      <c r="G48" s="169"/>
+        <v>310972</v>
+      </c>
+      <c r="F48" s="179"/>
+      <c r="G48" s="180"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5176,11 +5222,11 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="170" t="s">
+      <c r="E50" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5345,8 +5391,8 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5369,26 +5415,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="177"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
+      <c r="A1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
     </row>
     <row r="2" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="157"/>
       <c r="G2" s="157"/>
       <c r="H2" s="157"/>
@@ -5396,11 +5442,11 @@
       <c r="J2" s="157"/>
       <c r="K2" s="157"/>
       <c r="L2" s="157"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="184"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169"/>
       <c r="P2" s="62"/>
-      <c r="Q2" s="185"/>
+      <c r="Q2" s="170"/>
       <c r="R2" s="62"/>
       <c r="S2" s="121"/>
     </row>
@@ -5419,13 +5465,13 @@
       </c>
       <c r="I3" s="101"/>
       <c r="J3" s="137"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="184"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="169"/>
       <c r="P3" s="62"/>
-      <c r="Q3" s="185"/>
+      <c r="Q3" s="170"/>
       <c r="R3" s="62"/>
       <c r="S3" s="121"/>
     </row>
@@ -5447,11 +5493,11 @@
       <c r="J4" s="137"/>
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="184"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="169"/>
       <c r="P4" s="62"/>
-      <c r="Q4" s="185"/>
+      <c r="Q4" s="170"/>
       <c r="R4" s="62"/>
       <c r="S4" s="121"/>
     </row>
@@ -5473,11 +5519,11 @@
       <c r="J5" s="137"/>
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="184"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="169"/>
       <c r="P5" s="62"/>
-      <c r="Q5" s="185"/>
+      <c r="Q5" s="170"/>
       <c r="R5" s="62"/>
       <c r="S5" s="121"/>
     </row>
@@ -5499,11 +5545,11 @@
       <c r="J6" s="137"/>
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="184"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="169"/>
       <c r="P6" s="62"/>
-      <c r="Q6" s="185"/>
+      <c r="Q6" s="170"/>
       <c r="R6" s="62"/>
       <c r="S6" s="121"/>
     </row>
@@ -5525,11 +5571,11 @@
       <c r="J7" s="137"/>
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="184"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="169"/>
       <c r="P7" s="62"/>
-      <c r="Q7" s="185"/>
+      <c r="Q7" s="170"/>
       <c r="R7" s="62"/>
       <c r="S7" s="121"/>
     </row>
@@ -5551,11 +5597,11 @@
       <c r="J8" s="137"/>
       <c r="K8" s="60"/>
       <c r="L8" s="60"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="183"/>
-      <c r="O8" s="184"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="169"/>
       <c r="P8" s="62"/>
-      <c r="Q8" s="185"/>
+      <c r="Q8" s="170"/>
       <c r="R8" s="62"/>
       <c r="S8" s="121"/>
     </row>
@@ -5577,11 +5623,11 @@
       <c r="J9" s="137"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="184"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="169"/>
       <c r="P9" s="62"/>
-      <c r="Q9" s="185"/>
+      <c r="Q9" s="170"/>
       <c r="R9" s="62"/>
       <c r="S9" s="121"/>
     </row>
@@ -5603,11 +5649,11 @@
       <c r="J10" s="137"/>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="184"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="169"/>
       <c r="P10" s="62"/>
-      <c r="Q10" s="185"/>
+      <c r="Q10" s="170"/>
       <c r="R10" s="62"/>
       <c r="S10" s="121"/>
     </row>
@@ -5629,11 +5675,11 @@
       <c r="J11" s="137"/>
       <c r="K11" s="60"/>
       <c r="L11" s="60"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="184"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="169"/>
       <c r="P11" s="62"/>
-      <c r="Q11" s="185"/>
+      <c r="Q11" s="170"/>
       <c r="R11" s="62"/>
       <c r="S11" s="121"/>
     </row>
@@ -5655,11 +5701,11 @@
       <c r="J12" s="137"/>
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="184"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="169"/>
       <c r="P12" s="62"/>
-      <c r="Q12" s="185"/>
+      <c r="Q12" s="170"/>
       <c r="R12" s="62"/>
       <c r="S12" s="121"/>
     </row>
@@ -5681,11 +5727,11 @@
       <c r="J13" s="137"/>
       <c r="K13" s="62"/>
       <c r="L13" s="60"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="184"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="169"/>
       <c r="P13" s="62"/>
-      <c r="Q13" s="185"/>
+      <c r="Q13" s="170"/>
       <c r="R13" s="62"/>
       <c r="S13" s="121"/>
     </row>
@@ -5707,11 +5753,11 @@
       <c r="J14" s="137"/>
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="184"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="169"/>
       <c r="P14" s="62"/>
-      <c r="Q14" s="185"/>
+      <c r="Q14" s="170"/>
       <c r="R14" s="62"/>
       <c r="S14" s="121"/>
     </row>
@@ -5733,11 +5779,11 @@
       <c r="J15" s="137"/>
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="184"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="169"/>
       <c r="P15" s="62"/>
-      <c r="Q15" s="185"/>
+      <c r="Q15" s="170"/>
       <c r="R15" s="62"/>
       <c r="S15" s="121"/>
     </row>
@@ -5753,11 +5799,11 @@
       <c r="J16" s="137"/>
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="184"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="169"/>
       <c r="P16" s="62"/>
-      <c r="Q16" s="185"/>
+      <c r="Q16" s="170"/>
       <c r="R16" s="62"/>
       <c r="S16" s="121"/>
     </row>
@@ -5773,11 +5819,11 @@
       <c r="J17" s="137"/>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="184"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="169"/>
       <c r="P17" s="62"/>
-      <c r="Q17" s="185"/>
+      <c r="Q17" s="170"/>
       <c r="R17" s="62"/>
       <c r="S17" s="121"/>
     </row>
@@ -5792,12 +5838,12 @@
       <c r="I18" s="101"/>
       <c r="J18" s="137"/>
       <c r="K18" s="60"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="184"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="169"/>
       <c r="P18" s="62"/>
-      <c r="Q18" s="185"/>
+      <c r="Q18" s="170"/>
       <c r="R18" s="62"/>
       <c r="S18" s="121"/>
     </row>
@@ -5813,11 +5859,11 @@
       <c r="J19" s="137"/>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="184"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="169"/>
       <c r="P19" s="62"/>
-      <c r="Q19" s="185"/>
+      <c r="Q19" s="170"/>
       <c r="R19" s="62"/>
       <c r="S19" s="121"/>
     </row>
@@ -5825,23 +5871,25 @@
       <c r="A20" s="121"/>
       <c r="B20" s="130"/>
       <c r="C20" s="136"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="20">
+        <v>-529362.74</v>
+      </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>540817</v>
+        <v>11454.260000000009</v>
       </c>
       <c r="F20" s="121"/>
       <c r="G20" s="121"/>
       <c r="H20" s="121"/>
-      <c r="I20" s="188"/>
+      <c r="I20" s="173"/>
       <c r="J20" s="137"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="184"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="169"/>
       <c r="P20" s="62"/>
-      <c r="Q20" s="185"/>
+      <c r="Q20" s="170"/>
       <c r="R20" s="62"/>
       <c r="S20" s="121"/>
     </row>
@@ -5852,7 +5900,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>540817</v>
+        <v>11454.260000000009</v>
       </c>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
@@ -5861,11 +5909,11 @@
       <c r="J21" s="137"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="184"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="169"/>
       <c r="P21" s="62"/>
-      <c r="Q21" s="185"/>
+      <c r="Q21" s="170"/>
       <c r="R21" s="62"/>
       <c r="S21" s="121"/>
     </row>
@@ -5876,7 +5924,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="160">
         <f t="shared" si="0"/>
-        <v>540817</v>
+        <v>11454.260000000009</v>
       </c>
       <c r="F22" s="121"/>
       <c r="G22" s="121"/>
@@ -5885,11 +5933,11 @@
       <c r="J22" s="137"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="184"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="169"/>
       <c r="P22" s="62"/>
-      <c r="Q22" s="185"/>
+      <c r="Q22" s="170"/>
       <c r="R22" s="62"/>
       <c r="S22" s="129"/>
     </row>
@@ -5906,12 +5954,12 @@
       <c r="J23" s="137"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
-      <c r="M23" s="181"/>
+      <c r="M23" s="166"/>
       <c r="N23" s="121"/>
       <c r="O23" s="121"/>
       <c r="P23" s="121"/>
       <c r="Q23" s="121"/>
-      <c r="R23" s="189"/>
+      <c r="R23" s="174"/>
       <c r="S23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -5927,7 +5975,7 @@
       <c r="J24" s="137"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
-      <c r="M24" s="181"/>
+      <c r="M24" s="166"/>
       <c r="N24" s="121"/>
       <c r="O24" s="121"/>
       <c r="P24" s="121"/>
@@ -5940,9 +5988,7 @@
       <c r="B25" s="130"/>
       <c r="C25" s="136"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="22">
-        <v>850487.81</v>
-      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="121"/>
@@ -6283,11 +6329,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="179">
+      <c r="K63" s="190">
         <f>SUM(K39:K62)</f>
         <v>0</v>
       </c>
-      <c r="L63" s="180"/>
+      <c r="L63" s="191"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>
@@ -6384,25 +6430,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="184"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8132,12 +8178,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="167">
+      <c r="E76" s="178">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="168"/>
-      <c r="G76" s="169"/>
+      <c r="F76" s="179"/>
+      <c r="G76" s="180"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -8153,11 +8199,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="170" t="s">
+      <c r="E78" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
+      <c r="F78" s="181"/>
+      <c r="G78" s="181"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -8298,25 +8344,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="184"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9165,12 +9211,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="167">
+      <c r="E41" s="178">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="168"/>
-      <c r="G41" s="169"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="180"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -9186,11 +9232,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="170" t="s">
+      <c r="E43" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -9334,25 +9380,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="187"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10692,12 +10738,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="167">
+      <c r="E60" s="178">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="168"/>
-      <c r="G60" s="169"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="180"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -10713,11 +10759,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="170" t="s">
+      <c r="E62" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="170"/>
-      <c r="G62" s="170"/>
+      <c r="F62" s="181"/>
+      <c r="G62" s="181"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -10858,25 +10904,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="187"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12277,12 +12323,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="167">
+      <c r="E61" s="178">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="168"/>
-      <c r="G61" s="169"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="180"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -12298,11 +12344,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="170" t="s">
+      <c r="E63" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170"/>
+      <c r="F63" s="181"/>
+      <c r="G63" s="181"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -12443,25 +12489,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="187"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13911,12 +13957,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="167">
+      <c r="E64" s="178">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="168"/>
-      <c r="G64" s="169"/>
+      <c r="F64" s="179"/>
+      <c r="G64" s="180"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -13932,11 +13978,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="170" t="s">
+      <c r="E66" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
+      <c r="F66" s="181"/>
+      <c r="G66" s="181"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -14077,25 +14123,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="187"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15496,12 +15542,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="167">
+      <c r="E65" s="178">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="168"/>
-      <c r="G65" s="169"/>
+      <c r="F65" s="179"/>
+      <c r="G65" s="180"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -15517,11 +15563,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="170" t="s">
+      <c r="E67" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="181"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -15703,25 +15749,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="187"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16600,12 +16646,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="167">
+      <c r="E43" s="178">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="168"/>
-      <c r="G43" s="169"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="180"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -16621,11 +16667,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="170" t="s">
+      <c r="E45" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="181"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -16811,18 +16857,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="177"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
+      <c r="A1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -18061,11 +18107,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="179">
+      <c r="K63" s="190">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="180"/>
+      <c r="L63" s="191"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="93">
   <si>
     <t>REMISION</t>
   </si>
@@ -4357,8 +4357,8 @@
   </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4505,11 +4505,15 @@
       <c r="E7" s="20">
         <v>68701</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="21">
+        <v>44735</v>
+      </c>
+      <c r="G7" s="22">
+        <v>68701</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>68701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -4702,11 +4706,15 @@
       <c r="E16" s="20">
         <v>1191</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="21">
+        <v>44734</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1191</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>1191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -4717,7 +4725,7 @@
         <v>387</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="126" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="20">
@@ -4801,7 +4809,7 @@
         <v>391</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="20">
@@ -4836,58 +4844,82 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44732</v>
+      </c>
       <c r="B23" s="13">
         <v>393</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="20">
+        <v>24473</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24473</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44732</v>
+      </c>
       <c r="B24" s="13">
         <v>394</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="20">
+        <v>29600</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29600</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44733</v>
+      </c>
       <c r="B25" s="13">
         <v>395</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="20">
+        <v>9022</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9022</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44733</v>
+      </c>
       <c r="B26" s="13">
         <v>396</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
@@ -4896,58 +4928,92 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44733</v>
+      </c>
       <c r="B27" s="13">
         <v>397</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="D27" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="20">
+        <v>840</v>
+      </c>
+      <c r="F27" s="21">
+        <v>44737</v>
+      </c>
+      <c r="G27" s="22">
+        <v>840</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44734</v>
+      </c>
       <c r="B28" s="13">
         <v>398</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="D28" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1755</v>
+      </c>
+      <c r="F28" s="21">
+        <v>44741</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1755</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44734</v>
+      </c>
       <c r="B29" s="13">
         <v>399</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="20">
+        <v>14700</v>
+      </c>
       <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44736</v>
+      </c>
       <c r="B30" s="13">
         <v>400</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
@@ -4956,28 +5022,40 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44736</v>
+      </c>
       <c r="B31" s="13">
         <v>401</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="20">
+        <v>3100</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="23">
+        <v>44736</v>
+      </c>
       <c r="B32" s="13">
         <v>402</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="20">
+        <v>16229</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
@@ -4985,13 +5063,19 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="23">
+        <v>44737</v>
+      </c>
       <c r="B33" s="13">
         <v>403</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="20">
+        <v>10085</v>
+      </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="18">
@@ -5150,16 +5234,16 @@
       <c r="D44" s="2"/>
       <c r="E44" s="39">
         <f>SUM(E4:E43)</f>
-        <v>318606</v>
+        <v>428410</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39">
         <f>SUM(G4:G43)</f>
-        <v>7634</v>
-      </c>
-      <c r="H44" s="40">
+        <v>80121</v>
+      </c>
+      <c r="H44" s="40" t="e">
         <f>SUM(H4:H43)</f>
-        <v>310972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -5203,7 +5287,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="178">
         <f>E44-G44</f>
-        <v>310972</v>
+        <v>348289</v>
       </c>
       <c r="F48" s="179"/>
       <c r="G48" s="180"/>
@@ -5380,7 +5464,8 @@
     <mergeCell ref="E50:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5391,8 +5476,8 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="B49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5871,12 +5956,10 @@
       <c r="A20" s="121"/>
       <c r="B20" s="130"/>
       <c r="C20" s="136"/>
-      <c r="D20" s="20">
-        <v>-529362.74</v>
-      </c>
+      <c r="D20" s="20"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>11454.260000000009</v>
+        <v>540817</v>
       </c>
       <c r="F20" s="121"/>
       <c r="G20" s="121"/>
@@ -5900,7 +5983,7 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>11454.260000000009</v>
+        <v>540817</v>
       </c>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
@@ -5924,7 +6007,7 @@
       <c r="D22" s="20"/>
       <c r="E22" s="160">
         <f t="shared" si="0"/>
-        <v>11454.260000000009</v>
+        <v>540817</v>
       </c>
       <c r="F22" s="121"/>
       <c r="G22" s="121"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="93">
   <si>
     <t>REMISION</t>
   </si>
@@ -4358,7 +4358,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4459,11 +4459,15 @@
       <c r="E5" s="20">
         <v>400</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="21">
+        <v>44739</v>
+      </c>
+      <c r="G5" s="22">
+        <v>400</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5035,11 +5039,15 @@
       <c r="E31" s="20">
         <v>3100</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21">
+        <v>44739</v>
+      </c>
+      <c r="G31" s="22">
+        <v>3100</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5083,13 +5091,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="23">
+        <v>44739</v>
+      </c>
       <c r="B34" s="13">
         <v>404</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="20">
+        <v>19131</v>
+      </c>
       <c r="F34" s="125"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
@@ -5097,33 +5111,45 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="23">
+        <v>44739</v>
+      </c>
       <c r="B35" s="13">
         <v>405</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="20">
+        <v>74746</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74746</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="23">
+        <v>44739</v>
+      </c>
       <c r="B36" s="13">
         <v>406</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="20">
+        <v>31738</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31738</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5234,12 +5260,12 @@
       <c r="D44" s="2"/>
       <c r="E44" s="39">
         <f>SUM(E4:E43)</f>
-        <v>428410</v>
+        <v>554025</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39">
         <f>SUM(G4:G43)</f>
-        <v>80121</v>
+        <v>83621</v>
       </c>
       <c r="H44" s="40" t="e">
         <f>SUM(H4:H43)</f>
@@ -5287,7 +5313,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="178">
         <f>E44-G44</f>
-        <v>348289</v>
+        <v>470404</v>
       </c>
       <c r="F48" s="179"/>
       <c r="G48" s="180"/>
@@ -15815,7 +15841,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="95">
   <si>
     <t>REMISION</t>
   </si>
@@ -463,6 +463,25 @@
   <si>
     <t>NORMA LEDO</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEPOSITOS  ZAVALETA   A     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF990033"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ODELPA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Odelpa </t>
+  </si>
 </sst>
 </file>
 
@@ -668,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +775,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1383,6 +1408,9 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="15" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1437,6 +1465,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
@@ -1576,13 +1605,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1629,13 +1658,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1685,13 +1714,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -1729,13 +1758,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>974913</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>694765</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>11209</xdr:rowOff>
@@ -1775,13 +1804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>517351</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
@@ -3060,24 +3089,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="185"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4223,12 +4252,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="178">
+      <c r="D55" s="179">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="179"/>
-      <c r="F55" s="180"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="181"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4242,11 +4271,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="181" t="s">
+      <c r="D57" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="181"/>
-      <c r="F57" s="181"/>
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,10 +4384,10 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4375,25 +4404,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4440,7 +4469,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H43" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H56" si="0">E4-G4</f>
         <v>11152</v>
       </c>
       <c r="I4" s="2"/>
@@ -5070,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>44737</v>
       </c>
@@ -5090,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>44739</v>
       </c>
@@ -5110,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>44739</v>
       </c>
@@ -5131,7 +5160,7 @@
         <v>74746</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>44739</v>
       </c>
@@ -5152,332 +5181,565 @@
         <v>31738</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>44740</v>
+      </c>
       <c r="B37" s="13">
         <v>407</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="20">
+        <v>8280</v>
+      </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>44740</v>
+      </c>
       <c r="B38" s="13">
         <v>408</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="20">
+        <v>4048</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>44741</v>
+      </c>
       <c r="B39" s="13">
         <v>409</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1863</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>44742</v>
+      </c>
       <c r="B40" s="13">
         <v>410</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="20">
+        <v>24380</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="13"/>
+        <v>24380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>44743</v>
+      </c>
+      <c r="B41" s="13">
+        <v>411</v>
+      </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="20">
+        <v>12560</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="13"/>
+        <v>12560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>44744</v>
+      </c>
+      <c r="B42" s="13">
+        <v>412</v>
+      </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
+      <c r="D42" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="20">
+        <v>19173</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34">
-        <v>0</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+        <v>19173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="13">
+        <v>413</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="39">
-        <f>SUM(E4:E43)</f>
-        <v>554025</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39">
-        <f>SUM(G4:G43)</f>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="13">
+        <v>414</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13">
+        <v>415</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13">
+        <v>416</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="13">
+        <v>417</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="13">
+        <v>418</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="13">
+        <v>419</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="13">
+        <v>420</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="13">
+        <v>421</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="13">
+        <v>422</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="13">
+        <v>423</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="13">
+        <v>424</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34">
+        <v>0</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="39">
+        <f>SUM(E4:E56)</f>
+        <v>624329</v>
+      </c>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39">
+        <f>SUM(G4:G56)</f>
         <v>83621</v>
       </c>
-      <c r="H44" s="40" t="e">
-        <f>SUM(H4:H43)</f>
+      <c r="H57" s="40" t="e">
+        <f>SUM(H4:H56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="45" t="s">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="46" t="s">
+      <c r="F59" s="42"/>
+      <c r="G59" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="178">
-        <f>E44-G44</f>
-        <v>470404</v>
-      </c>
-      <c r="F48" s="179"/>
-      <c r="G48" s="180"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="43"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="181" t="s">
+      <c r="H59" s="44"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="179">
+        <f>E57-G57</f>
+        <v>540708</v>
+      </c>
+      <c r="F61" s="180"/>
+      <c r="G61" s="181"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="117"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="118"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="118"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="118"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="118"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="118"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="118"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="118"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="118"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="118"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="104"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="105"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="110"/>
-      <c r="H63" s="104"/>
+      <c r="F63" s="182"/>
+      <c r="G63" s="182"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="111"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="117"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="101"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="118"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="118"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="118"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="118"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="118"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="123"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="118"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="123"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="118"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="123"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="118"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="118"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="104"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="105"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="110"/>
+      <c r="H76" s="104"/>
     </row>
   </sheetData>
   <sortState ref="A4:H64">
@@ -5486,8 +5748,8 @@
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E63:G63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5500,68 +5762,78 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="B1:AA68"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="114"/>
-    <col min="2" max="2" width="15.140625" style="114" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="114" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="114" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="114" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="114"/>
+    <col min="4" max="4" width="13.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="114" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="11.42578125" style="114"/>
-    <col min="10" max="10" width="14.85546875" style="138" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="115" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="142"/>
-    <col min="14" max="15" width="11.42578125" style="114"/>
-    <col min="16" max="16" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="114"/>
-    <col min="18" max="18" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="114"/>
+    <col min="10" max="10" width="15.140625" style="114" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="114" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="114" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="114" customWidth="1"/>
+    <col min="14" max="17" width="11.42578125" style="114"/>
+    <col min="18" max="18" width="14.85546875" style="138" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="115" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="142"/>
+    <col min="22" max="23" width="11.42578125" style="114"/>
+    <col min="24" max="24" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="114"/>
+    <col min="26" max="26" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="188"/>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-    </row>
-    <row r="2" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="175" t="s">
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+    </row>
+    <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="J2" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="121"/>
-    </row>
-    <row r="3" spans="1:19" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="121"/>
+    </row>
+    <row r="3" spans="2:27" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="132" t="s">
         <v>44</v>
       </c>
@@ -5571,886 +5843,1103 @@
       <c r="D3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="177" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="101"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="121"/>
-    </row>
-    <row r="4" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="121"/>
+    </row>
+    <row r="4" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="130">
-        <v>44720</v>
+        <v>44732</v>
       </c>
       <c r="C4" s="135">
-        <v>44722</v>
+        <v>44735</v>
       </c>
       <c r="D4" s="131">
-        <v>45730</v>
+        <v>33921</v>
       </c>
       <c r="E4" s="131">
         <f>D4</f>
+        <v>33921</v>
+      </c>
+      <c r="J4" s="130">
+        <v>44720</v>
+      </c>
+      <c r="K4" s="135">
+        <v>44722</v>
+      </c>
+      <c r="L4" s="131">
         <v>45730</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="121"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="131">
+        <f>L4</f>
+        <v>45730</v>
+      </c>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="121"/>
+    </row>
+    <row r="5" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="130">
-        <v>44721</v>
+        <v>44733</v>
       </c>
       <c r="C5" s="136">
-        <v>44722</v>
+        <v>44735</v>
       </c>
       <c r="D5" s="20">
-        <v>44700</v>
+        <v>43366</v>
       </c>
       <c r="E5" s="20">
         <f>E4+D5</f>
+        <v>77287</v>
+      </c>
+      <c r="J5" s="130">
+        <v>44721</v>
+      </c>
+      <c r="K5" s="136">
+        <v>44722</v>
+      </c>
+      <c r="L5" s="20">
+        <v>44700</v>
+      </c>
+      <c r="M5" s="20">
+        <f>M4+L5</f>
         <v>90430</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="101"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="170"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="121"/>
+    </row>
+    <row r="6" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="130">
-        <v>44722</v>
+        <v>44734</v>
       </c>
       <c r="C6" s="136">
-        <v>44725</v>
+        <v>44735</v>
       </c>
       <c r="D6" s="20">
-        <v>45943</v>
+        <v>2333.5</v>
       </c>
       <c r="E6" s="20">
         <f>E5+D6</f>
+        <v>79620.5</v>
+      </c>
+      <c r="J6" s="130">
+        <v>44722</v>
+      </c>
+      <c r="K6" s="136">
+        <v>44725</v>
+      </c>
+      <c r="L6" s="20">
+        <v>45943</v>
+      </c>
+      <c r="M6" s="20">
+        <f>M5+L6</f>
         <v>136373</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="121"/>
-    </row>
-    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="101"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="170"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="121"/>
+    </row>
+    <row r="7" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="130">
-        <v>44723</v>
+        <v>44734</v>
       </c>
       <c r="C7" s="136">
-        <v>44725</v>
+        <v>44735</v>
       </c>
       <c r="D7" s="20">
-        <v>16613.5</v>
+        <v>43790.5</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" ref="E7:E22" si="0">E6+D7</f>
+        <v>123411</v>
+      </c>
+      <c r="J7" s="130">
+        <v>44723</v>
+      </c>
+      <c r="K7" s="136">
+        <v>44725</v>
+      </c>
+      <c r="L7" s="20">
+        <v>16613.5</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" ref="M7:M22" si="1">M6+L7</f>
         <v>152986.5</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="121"/>
-    </row>
-    <row r="8" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="101"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="170"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="121"/>
+    </row>
+    <row r="8" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="130">
+        <v>44735</v>
+      </c>
+      <c r="C8" s="136">
+        <v>44741</v>
+      </c>
+      <c r="D8" s="20">
+        <v>125792.5</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>249203.5</v>
+      </c>
+      <c r="J8" s="130">
         <v>44724</v>
       </c>
-      <c r="C8" s="136">
+      <c r="K8" s="136">
         <v>44725</v>
       </c>
-      <c r="D8" s="20">
+      <c r="L8" s="20">
         <v>17154</v>
       </c>
-      <c r="E8" s="20">
-        <f t="shared" si="0"/>
+      <c r="M8" s="20">
+        <f t="shared" si="1"/>
         <v>170140.5</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="121"/>
-    </row>
-    <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="101"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="121"/>
+    </row>
+    <row r="9" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="130">
+        <v>44736</v>
+      </c>
+      <c r="C9" s="136">
+        <v>44741</v>
+      </c>
+      <c r="D9" s="20">
+        <v>69597</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>318800.5</v>
+      </c>
+      <c r="J9" s="130">
         <v>44725</v>
       </c>
-      <c r="C9" s="136">
+      <c r="K9" s="136">
         <v>44728</v>
       </c>
-      <c r="D9" s="20">
+      <c r="L9" s="20">
         <v>50350</v>
       </c>
-      <c r="E9" s="20">
-        <f t="shared" si="0"/>
+      <c r="M9" s="20">
+        <f t="shared" si="1"/>
         <v>220490.5</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="121"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="101"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="169"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="121"/>
+    </row>
+    <row r="10" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="130">
+        <v>44737</v>
+      </c>
+      <c r="C10" s="136">
+        <v>44741</v>
+      </c>
+      <c r="D10" s="20">
+        <v>24888</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>343688.5</v>
+      </c>
+      <c r="J10" s="130">
         <v>44726</v>
       </c>
-      <c r="C10" s="136">
+      <c r="K10" s="136">
         <v>44728</v>
       </c>
-      <c r="D10" s="20">
+      <c r="L10" s="20">
         <v>44920</v>
       </c>
-      <c r="E10" s="20">
-        <f t="shared" si="0"/>
+      <c r="M10" s="20">
+        <f t="shared" si="1"/>
         <v>265410.5</v>
       </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="121"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="101"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="170"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="121"/>
+    </row>
+    <row r="11" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="130">
+        <v>44738</v>
+      </c>
+      <c r="C11" s="136">
+        <v>44741</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1728</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>345416.5</v>
+      </c>
+      <c r="J11" s="130">
         <v>44727</v>
       </c>
-      <c r="C11" s="136">
+      <c r="K11" s="136">
         <v>44728</v>
       </c>
-      <c r="D11" s="20">
+      <c r="L11" s="20">
         <v>36290.5</v>
       </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
+      <c r="M11" s="20">
+        <f t="shared" si="1"/>
         <v>301701</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="168"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="121"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="101"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="170"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="121"/>
+    </row>
+    <row r="12" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="130">
+        <v>44739</v>
+      </c>
+      <c r="C12" s="136">
+        <v>44741</v>
+      </c>
+      <c r="D12" s="20">
+        <v>40980.5</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>386397</v>
+      </c>
+      <c r="J12" s="130">
         <v>44728</v>
       </c>
-      <c r="C12" s="136">
+      <c r="K12" s="136">
         <v>44732</v>
       </c>
-      <c r="D12" s="20">
+      <c r="L12" s="20">
         <v>49576</v>
       </c>
-      <c r="E12" s="20">
-        <f t="shared" si="0"/>
+      <c r="M12" s="20">
+        <f t="shared" si="1"/>
         <v>351277</v>
       </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="121"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="101"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="170"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="121"/>
+    </row>
+    <row r="13" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="130">
+        <v>44740</v>
+      </c>
+      <c r="C13" s="136">
+        <v>44741</v>
+      </c>
+      <c r="D13" s="22">
+        <v>73988</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="J13" s="130">
         <v>44729</v>
       </c>
-      <c r="C13" s="136">
+      <c r="K13" s="136">
         <v>44732</v>
       </c>
-      <c r="D13" s="22">
+      <c r="L13" s="22">
         <v>48123</v>
       </c>
-      <c r="E13" s="20">
-        <f t="shared" si="0"/>
+      <c r="M13" s="20">
+        <f t="shared" si="1"/>
         <v>399400</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="121"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130">
+      <c r="Q13" s="101"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="121"/>
+    </row>
+    <row r="14" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="130"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="J14" s="130">
         <v>44730</v>
       </c>
-      <c r="C14" s="136">
+      <c r="K14" s="136">
         <v>44732</v>
       </c>
-      <c r="D14" s="20">
+      <c r="L14" s="20">
         <v>66300</v>
       </c>
-      <c r="E14" s="20">
-        <f t="shared" si="0"/>
+      <c r="M14" s="20">
+        <f t="shared" si="1"/>
         <v>465700</v>
       </c>
-      <c r="I14" s="101"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="121"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130">
+      <c r="Q14" s="101"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="121"/>
+    </row>
+    <row r="15" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="130"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="J15" s="130">
         <v>44731</v>
       </c>
-      <c r="C15" s="136">
+      <c r="K15" s="136">
         <v>44732</v>
       </c>
-      <c r="D15" s="20">
+      <c r="L15" s="20">
         <v>75117</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" si="0"/>
+      <c r="M15" s="20">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="I15" s="101"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="121"/>
-    </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="101"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="121"/>
+    </row>
+    <row r="16" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="130"/>
       <c r="C16" s="136"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="J16" s="130"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="168"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="121"/>
-    </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="101"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="169"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="121"/>
+    </row>
+    <row r="17" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="130"/>
       <c r="C17" s="136"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="J17" s="130"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="121"/>
-    </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="101"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="121"/>
+    </row>
+    <row r="18" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="130"/>
       <c r="C18" s="136"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="J18" s="130"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="I18" s="101"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="121"/>
-    </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="101"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="170"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="121"/>
+    </row>
+    <row r="19" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="130"/>
       <c r="C19" s="136"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="J19" s="130"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="I19" s="101"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="168"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="121"/>
-    </row>
-    <row r="20" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="121"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="169"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="170"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="121"/>
+    </row>
+    <row r="20" spans="2:27" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="130"/>
       <c r="C20" s="136"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="I20" s="121"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="121"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="170"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="121"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21" s="130"/>
       <c r="C21" s="136"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="I21" s="121"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="168"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="121"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="169"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="170"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="121"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="130"/>
       <c r="C22" s="136"/>
       <c r="D22" s="20"/>
       <c r="E22" s="160">
         <f t="shared" si="0"/>
+        <v>460385</v>
+      </c>
+      <c r="I22" s="121"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="160">
+        <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="129"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="169"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="170"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="129"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23" s="130"/>
       <c r="C23" s="136"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="166"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="121"/>
       <c r="O23" s="121"/>
       <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="174"/>
-      <c r="S23" s="121"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="121"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="174"/>
+      <c r="AA23" s="121"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24" s="130"/>
       <c r="C24" s="136"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="166"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="121"/>
       <c r="O24" s="121"/>
       <c r="P24" s="121"/>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25" s="130"/>
       <c r="C25" s="136"/>
       <c r="D25" s="20"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-    </row>
-    <row r="26" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+    </row>
+    <row r="26" spans="2:27" ht="21" x14ac:dyDescent="0.35">
       <c r="J26" s="157"/>
       <c r="K26" s="157"/>
       <c r="L26" s="157"/>
-    </row>
-    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K42" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="121"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="K43" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="121"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="163">
-        <v>0</v>
-      </c>
-      <c r="L44" s="60"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="121"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="163">
-        <v>0</v>
-      </c>
-      <c r="L45" s="60"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="121"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="163">
-        <v>0</v>
-      </c>
-      <c r="L46" s="60"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="121"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="163">
-        <v>0</v>
-      </c>
-      <c r="L47" s="60"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="121"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="163">
-        <v>0</v>
-      </c>
-      <c r="L48" s="60"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="121"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="163">
-        <v>0</v>
-      </c>
-      <c r="L49" s="60"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="121"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="163">
-        <v>0</v>
-      </c>
-      <c r="L50" s="60"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="121"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="163">
-        <v>0</v>
-      </c>
-      <c r="L51" s="60"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="163">
-        <v>0</v>
-      </c>
-      <c r="L52" s="60"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="121"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="163">
-        <v>0</v>
-      </c>
-      <c r="L53" s="60"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="121"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="163">
-        <v>0</v>
-      </c>
-      <c r="L54" s="60"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="121"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="163">
-        <v>0</v>
-      </c>
-      <c r="L55" s="60"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="121"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="163">
-        <v>0</v>
-      </c>
-      <c r="L56" s="60"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="121"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="163">
-        <v>0</v>
-      </c>
-      <c r="L57" s="60"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="163">
-        <v>0</v>
-      </c>
-      <c r="L58" s="60"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="121"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="163">
-        <v>0</v>
-      </c>
-      <c r="L59" s="60"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K60" s="163">
-        <v>0</v>
-      </c>
-      <c r="L60" s="60"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K61" s="163">
-        <v>0</v>
-      </c>
-      <c r="L61" s="129"/>
-    </row>
-    <row r="62" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K62" s="162">
-        <v>0</v>
-      </c>
-      <c r="L62" s="121"/>
-    </row>
-    <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="190">
-        <f>SUM(K39:K62)</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="191"/>
-    </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K68" s="54"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
+    </row>
+    <row r="28" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S39" s="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S40" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S41" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="S42" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="S43" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="101"/>
+      <c r="R44" s="137"/>
+      <c r="S44" s="163">
+        <v>0</v>
+      </c>
+      <c r="T44" s="60"/>
+    </row>
+    <row r="45" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="163">
+        <v>0</v>
+      </c>
+      <c r="T45" s="60"/>
+    </row>
+    <row r="46" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="137"/>
+      <c r="S46" s="163">
+        <v>0</v>
+      </c>
+      <c r="T46" s="60"/>
+    </row>
+    <row r="47" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I47" s="121"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="137"/>
+      <c r="S47" s="163">
+        <v>0</v>
+      </c>
+      <c r="T47" s="60"/>
+    </row>
+    <row r="48" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="101"/>
+      <c r="R48" s="137"/>
+      <c r="S48" s="163">
+        <v>0</v>
+      </c>
+      <c r="T48" s="60"/>
+    </row>
+    <row r="49" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I49" s="121"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="121"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="121"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="101"/>
+      <c r="R49" s="137"/>
+      <c r="S49" s="163">
+        <v>0</v>
+      </c>
+      <c r="T49" s="60"/>
+    </row>
+    <row r="50" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I50" s="121"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="101"/>
+      <c r="R50" s="137"/>
+      <c r="S50" s="163">
+        <v>0</v>
+      </c>
+      <c r="T50" s="60"/>
+    </row>
+    <row r="51" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="121"/>
+      <c r="P51" s="121"/>
+      <c r="Q51" s="101"/>
+      <c r="R51" s="137"/>
+      <c r="S51" s="163">
+        <v>0</v>
+      </c>
+      <c r="T51" s="60"/>
+    </row>
+    <row r="52" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="121"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="121"/>
+      <c r="P52" s="121"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="137"/>
+      <c r="S52" s="163">
+        <v>0</v>
+      </c>
+      <c r="T52" s="60"/>
+    </row>
+    <row r="53" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="121"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="121"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="121"/>
+      <c r="P53" s="121"/>
+      <c r="Q53" s="101"/>
+      <c r="R53" s="137"/>
+      <c r="S53" s="163">
+        <v>0</v>
+      </c>
+      <c r="T53" s="60"/>
+    </row>
+    <row r="54" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="121"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="121"/>
+      <c r="Q54" s="101"/>
+      <c r="R54" s="137"/>
+      <c r="S54" s="163">
+        <v>0</v>
+      </c>
+      <c r="T54" s="60"/>
+    </row>
+    <row r="55" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I55" s="121"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="121"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="121"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="121"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="137"/>
+      <c r="S55" s="163">
+        <v>0</v>
+      </c>
+      <c r="T55" s="60"/>
+    </row>
+    <row r="56" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="121"/>
+      <c r="O56" s="121"/>
+      <c r="P56" s="121"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="137"/>
+      <c r="S56" s="163">
+        <v>0</v>
+      </c>
+      <c r="T56" s="60"/>
+    </row>
+    <row r="57" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I57" s="121"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="121"/>
+      <c r="L57" s="121"/>
+      <c r="M57" s="121"/>
+      <c r="N57" s="121"/>
+      <c r="O57" s="121"/>
+      <c r="P57" s="121"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="137"/>
+      <c r="S57" s="163">
+        <v>0</v>
+      </c>
+      <c r="T57" s="60"/>
+    </row>
+    <row r="58" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="121"/>
+      <c r="O58" s="121"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="137"/>
+      <c r="S58" s="163">
+        <v>0</v>
+      </c>
+      <c r="T58" s="60"/>
+    </row>
+    <row r="59" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I59" s="121"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="121"/>
+      <c r="L59" s="121"/>
+      <c r="M59" s="121"/>
+      <c r="N59" s="121"/>
+      <c r="O59" s="121"/>
+      <c r="P59" s="121"/>
+      <c r="Q59" s="101"/>
+      <c r="R59" s="137"/>
+      <c r="S59" s="163">
+        <v>0</v>
+      </c>
+      <c r="T59" s="60"/>
+    </row>
+    <row r="60" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="S60" s="163">
+        <v>0</v>
+      </c>
+      <c r="T60" s="60"/>
+    </row>
+    <row r="61" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="S61" s="163">
+        <v>0</v>
+      </c>
+      <c r="T61" s="129"/>
+    </row>
+    <row r="62" spans="9:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S62" s="162">
+        <v>0</v>
+      </c>
+      <c r="T62" s="121"/>
+    </row>
+    <row r="63" spans="9:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S63" s="191">
+        <f>SUM(S39:S62)</f>
+        <v>0</v>
+      </c>
+      <c r="T63" s="192"/>
+    </row>
+    <row r="68" spans="19:19" x14ac:dyDescent="0.3">
+      <c r="S68" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="S63:T63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6539,25 +7028,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8287,12 +8776,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="178">
+      <c r="E76" s="179">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="179"/>
-      <c r="G76" s="180"/>
+      <c r="F76" s="180"/>
+      <c r="G76" s="181"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -8308,11 +8797,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="181" t="s">
+      <c r="E78" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="181"/>
-      <c r="G78" s="181"/>
+      <c r="F78" s="182"/>
+      <c r="G78" s="182"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -8453,25 +8942,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="185"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9320,12 +9809,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="178">
+      <c r="E41" s="179">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="179"/>
-      <c r="G41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="181"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -9341,11 +9830,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="181" t="s">
+      <c r="E43" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,25 +9978,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10847,12 +11336,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="178">
+      <c r="E60" s="179">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="179"/>
-      <c r="G60" s="180"/>
+      <c r="F60" s="180"/>
+      <c r="G60" s="181"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -10868,11 +11357,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="181" t="s">
+      <c r="E62" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="181"/>
-      <c r="G62" s="181"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11013,25 +11502,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12432,12 +12921,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="178">
+      <c r="E61" s="179">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="179"/>
-      <c r="G61" s="180"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="181"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -12453,11 +12942,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="181" t="s">
+      <c r="E63" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="181"/>
-      <c r="G63" s="181"/>
+      <c r="F63" s="182"/>
+      <c r="G63" s="182"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -12598,25 +13087,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14066,12 +14555,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="178">
+      <c r="E64" s="179">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="179"/>
-      <c r="G64" s="180"/>
+      <c r="F64" s="180"/>
+      <c r="G64" s="181"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -14087,11 +14576,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="181" t="s">
+      <c r="E66" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="181"/>
-      <c r="G66" s="181"/>
+      <c r="F66" s="182"/>
+      <c r="G66" s="182"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -14232,25 +14721,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15651,12 +16140,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="178">
+      <c r="E65" s="179">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="179"/>
-      <c r="G65" s="180"/>
+      <c r="F65" s="180"/>
+      <c r="G65" s="181"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -15672,11 +16161,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="181" t="s">
+      <c r="E67" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="181"/>
-      <c r="G67" s="181"/>
+      <c r="F67" s="182"/>
+      <c r="G67" s="182"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -15858,25 +16347,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16755,12 +17244,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="178">
+      <c r="E43" s="179">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="179"/>
-      <c r="G43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="181"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -16776,11 +17265,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="181" t="s">
+      <c r="E45" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="182"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -16966,18 +17455,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="188"/>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
+      <c r="A1" s="189"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -18216,11 +18705,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="190">
+      <c r="K63" s="191">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="191"/>
+      <c r="L63" s="192"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="97">
   <si>
     <t>REMISION</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t xml:space="preserve">Odelpa </t>
+  </si>
+  <si>
+    <t>SE ABONO A LA SIGUEINTE NOTA</t>
+  </si>
+  <si>
+    <t>DEUDA</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1456,6 +1462,24 @@
     <xf numFmtId="7" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1465,8 +1489,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
       <color rgb="FF0000FF"/>
@@ -1712,108 +1736,18 @@
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>81169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector recto 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1095375" y="13487400"/>
-          <a:ext cx="7467600" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>974913</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>694765</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>11209</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector angular 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2482942" y="9047911"/>
-          <a:ext cx="10191194" cy="6158752"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 17037"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>517351</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>509068</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1830,8 +1764,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685799" y="9115425"/>
-          <a:ext cx="8146877" cy="10001250"/>
+          <a:off x="16927995" y="250134"/>
+          <a:ext cx="8147291" cy="10074965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347868</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101756</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5971759" y="0"/>
+          <a:ext cx="10885714" cy="8361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4386,7 +4358,7 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -5762,78 +5734,81 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:AA68"/>
+  <dimension ref="B1:AJ68"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="114" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="114"/>
-    <col min="4" max="4" width="13.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="114" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="114"/>
-    <col min="10" max="10" width="15.140625" style="114" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="114" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="114" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" style="114" customWidth="1"/>
-    <col min="14" max="17" width="11.42578125" style="114"/>
-    <col min="18" max="18" width="14.85546875" style="138" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="115" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="142"/>
-    <col min="22" max="23" width="11.42578125" style="114"/>
-    <col min="24" max="24" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="114"/>
-    <col min="26" max="26" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="114"/>
+    <col min="6" max="12" width="11.42578125" style="114"/>
+    <col min="13" max="14" width="39.140625" style="114" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" style="114" customWidth="1"/>
+    <col min="16" max="18" width="14.7109375" style="114" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="114" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="114" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="114" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="114" customWidth="1"/>
+    <col min="23" max="26" width="11.42578125" style="114"/>
+    <col min="27" max="27" width="14.85546875" style="138" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="115" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" style="142"/>
+    <col min="31" max="32" width="11.42578125" style="114"/>
+    <col min="33" max="33" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="114"/>
+    <col min="35" max="35" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="I1" s="189"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="R1" s="189"/>
       <c r="S1" s="190"/>
       <c r="T1" s="190"/>
-    </row>
-    <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+    </row>
+    <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="159"/>
       <c r="D2" s="159"/>
       <c r="E2" s="159"/>
-      <c r="J2" s="175" t="s">
+      <c r="S2" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="121"/>
-    </row>
-    <row r="3" spans="2:27" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="121"/>
+    </row>
+    <row r="3" spans="2:36" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="132" t="s">
         <v>44</v>
       </c>
@@ -5846,31 +5821,31 @@
       <c r="E3" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="S3" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="134" t="s">
+      <c r="T3" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="139" t="s">
+      <c r="U3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="133" t="s">
+      <c r="V3" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="121"/>
-    </row>
-    <row r="4" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="121"/>
+    </row>
+    <row r="4" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="130">
         <v>44732</v>
       </c>
@@ -5884,32 +5859,32 @@
         <f>D4</f>
         <v>33921</v>
       </c>
-      <c r="J4" s="130">
+      <c r="S4" s="130">
         <v>44720</v>
       </c>
-      <c r="K4" s="135">
+      <c r="T4" s="135">
         <v>44722</v>
       </c>
-      <c r="L4" s="131">
+      <c r="U4" s="131">
         <v>45730</v>
       </c>
-      <c r="M4" s="131">
-        <f>L4</f>
+      <c r="V4" s="131">
+        <f>U4</f>
         <v>45730</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="166"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="121"/>
-    </row>
-    <row r="5" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="169"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="121"/>
+    </row>
+    <row r="5" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="130">
         <v>44733</v>
       </c>
@@ -5923,32 +5898,32 @@
         <f>E4+D5</f>
         <v>77287</v>
       </c>
-      <c r="J5" s="130">
+      <c r="S5" s="130">
         <v>44721</v>
       </c>
-      <c r="K5" s="136">
+      <c r="T5" s="136">
         <v>44722</v>
       </c>
-      <c r="L5" s="20">
+      <c r="U5" s="20">
         <v>44700</v>
       </c>
-      <c r="M5" s="20">
-        <f>M4+L5</f>
+      <c r="V5" s="20">
+        <f>V4+U5</f>
         <v>90430</v>
       </c>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="121"/>
-    </row>
-    <row r="6" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="169"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="121"/>
+    </row>
+    <row r="6" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="130">
         <v>44734</v>
       </c>
@@ -5962,32 +5937,32 @@
         <f>E5+D6</f>
         <v>79620.5</v>
       </c>
-      <c r="J6" s="130">
+      <c r="S6" s="130">
         <v>44722</v>
       </c>
-      <c r="K6" s="136">
+      <c r="T6" s="136">
         <v>44725</v>
       </c>
-      <c r="L6" s="20">
+      <c r="U6" s="20">
         <v>45943</v>
       </c>
-      <c r="M6" s="20">
-        <f>M5+L6</f>
+      <c r="V6" s="20">
+        <f>V5+U6</f>
         <v>136373</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="170"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="121"/>
-    </row>
-    <row r="7" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="168"/>
+      <c r="AF6" s="169"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="170"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="121"/>
+    </row>
+    <row r="7" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="130">
         <v>44734</v>
       </c>
@@ -5998,35 +5973,35 @@
         <v>43790.5</v>
       </c>
       <c r="E7" s="20">
-        <f t="shared" ref="E7:E22" si="0">E6+D7</f>
+        <f t="shared" ref="E7:E35" si="0">E6+D7</f>
         <v>123411</v>
       </c>
-      <c r="J7" s="130">
+      <c r="S7" s="130">
         <v>44723</v>
       </c>
-      <c r="K7" s="136">
+      <c r="T7" s="136">
         <v>44725</v>
       </c>
-      <c r="L7" s="20">
+      <c r="U7" s="20">
         <v>16613.5</v>
       </c>
-      <c r="M7" s="20">
-        <f t="shared" ref="M7:M22" si="1">M6+L7</f>
+      <c r="V7" s="20">
+        <f t="shared" ref="V7:V22" si="1">V6+U7</f>
         <v>152986.5</v>
       </c>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="169"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="121"/>
-    </row>
-    <row r="8" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="137"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="121"/>
+    </row>
+    <row r="8" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="130">
         <v>44735</v>
       </c>
@@ -6040,32 +6015,32 @@
         <f t="shared" si="0"/>
         <v>249203.5</v>
       </c>
-      <c r="J8" s="130">
+      <c r="S8" s="130">
         <v>44724</v>
       </c>
-      <c r="K8" s="136">
+      <c r="T8" s="136">
         <v>44725</v>
       </c>
-      <c r="L8" s="20">
+      <c r="U8" s="20">
         <v>17154</v>
       </c>
-      <c r="M8" s="20">
+      <c r="V8" s="20">
         <f t="shared" si="1"/>
         <v>170140.5</v>
       </c>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="121"/>
-    </row>
-    <row r="9" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="166"/>
+      <c r="AE8" s="168"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="121"/>
+    </row>
+    <row r="9" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="130">
         <v>44736</v>
       </c>
@@ -6079,32 +6054,32 @@
         <f t="shared" si="0"/>
         <v>318800.5</v>
       </c>
-      <c r="J9" s="130">
+      <c r="S9" s="130">
         <v>44725</v>
       </c>
-      <c r="K9" s="136">
+      <c r="T9" s="136">
         <v>44728</v>
       </c>
-      <c r="L9" s="20">
+      <c r="U9" s="20">
         <v>50350</v>
       </c>
-      <c r="M9" s="20">
+      <c r="V9" s="20">
         <f t="shared" si="1"/>
         <v>220490.5</v>
       </c>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="169"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="121"/>
-    </row>
-    <row r="10" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="168"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="121"/>
+    </row>
+    <row r="10" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="130">
         <v>44737</v>
       </c>
@@ -6118,32 +6093,32 @@
         <f t="shared" si="0"/>
         <v>343688.5</v>
       </c>
-      <c r="J10" s="130">
+      <c r="S10" s="130">
         <v>44726</v>
       </c>
-      <c r="K10" s="136">
+      <c r="T10" s="136">
         <v>44728</v>
       </c>
-      <c r="L10" s="20">
+      <c r="U10" s="20">
         <v>44920</v>
       </c>
-      <c r="M10" s="20">
+      <c r="V10" s="20">
         <f t="shared" si="1"/>
         <v>265410.5</v>
       </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="121"/>
-    </row>
-    <row r="11" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="168"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="121"/>
+    </row>
+    <row r="11" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="130">
         <v>44738</v>
       </c>
@@ -6157,32 +6132,32 @@
         <f t="shared" si="0"/>
         <v>345416.5</v>
       </c>
-      <c r="J11" s="130">
+      <c r="S11" s="130">
         <v>44727</v>
       </c>
-      <c r="K11" s="136">
+      <c r="T11" s="136">
         <v>44728</v>
       </c>
-      <c r="L11" s="20">
+      <c r="U11" s="20">
         <v>36290.5</v>
       </c>
-      <c r="M11" s="20">
+      <c r="V11" s="20">
         <f t="shared" si="1"/>
         <v>301701</v>
       </c>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="121"/>
-    </row>
-    <row r="12" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="168"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="170"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="121"/>
+    </row>
+    <row r="12" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="130">
         <v>44739</v>
       </c>
@@ -6196,32 +6171,32 @@
         <f t="shared" si="0"/>
         <v>386397</v>
       </c>
-      <c r="J12" s="130">
+      <c r="S12" s="130">
         <v>44728</v>
       </c>
-      <c r="K12" s="136">
+      <c r="T12" s="136">
         <v>44732</v>
       </c>
-      <c r="L12" s="20">
+      <c r="U12" s="20">
         <v>49576</v>
       </c>
-      <c r="M12" s="20">
+      <c r="V12" s="20">
         <f t="shared" si="1"/>
         <v>351277</v>
       </c>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="137"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="170"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="121"/>
-    </row>
-    <row r="13" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="166"/>
+      <c r="AE12" s="168"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="121"/>
+    </row>
+    <row r="13" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="130">
         <v>44740</v>
       </c>
@@ -6235,714 +6210,764 @@
         <f t="shared" si="0"/>
         <v>460385</v>
       </c>
-      <c r="J13" s="130">
+      <c r="S13" s="130">
         <v>44729</v>
       </c>
-      <c r="K13" s="136">
+      <c r="T13" s="136">
         <v>44732</v>
       </c>
-      <c r="L13" s="22">
+      <c r="U13" s="22">
         <v>48123</v>
       </c>
-      <c r="M13" s="20">
+      <c r="V13" s="20">
         <f t="shared" si="1"/>
         <v>399400</v>
       </c>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="121"/>
-    </row>
-    <row r="14" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="20"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="121"/>
+    </row>
+    <row r="14" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="130">
+        <v>44741</v>
+      </c>
+      <c r="C14" s="136">
+        <v>44746</v>
+      </c>
+      <c r="D14" s="20">
+        <v>35929.5</v>
+      </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="J14" s="130">
+        <v>496314.5</v>
+      </c>
+      <c r="S14" s="130">
         <v>44730</v>
       </c>
-      <c r="K14" s="136">
+      <c r="T14" s="136">
         <v>44732</v>
       </c>
-      <c r="L14" s="20">
+      <c r="U14" s="20">
         <v>66300</v>
       </c>
-      <c r="M14" s="20">
+      <c r="V14" s="20">
         <f t="shared" si="1"/>
         <v>465700</v>
       </c>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="121"/>
-    </row>
-    <row r="15" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="20"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="166"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="169"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="121"/>
+    </row>
+    <row r="15" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="130">
+        <v>44742</v>
+      </c>
+      <c r="C15" s="136">
+        <v>44746</v>
+      </c>
+      <c r="D15" s="20">
+        <v>60715.5</v>
+      </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="J15" s="130">
+        <v>557030</v>
+      </c>
+      <c r="S15" s="130">
         <v>44731</v>
       </c>
-      <c r="K15" s="136">
+      <c r="T15" s="136">
         <v>44732</v>
       </c>
-      <c r="L15" s="20">
+      <c r="U15" s="20">
         <v>75117</v>
       </c>
-      <c r="M15" s="20">
+      <c r="V15" s="20">
         <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="137"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="121"/>
-    </row>
-    <row r="16" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="20"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="168"/>
+      <c r="AF15" s="169"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="121"/>
+    </row>
+    <row r="16" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="130">
+        <v>44743</v>
+      </c>
+      <c r="C16" s="136">
+        <v>44746</v>
+      </c>
+      <c r="D16" s="20">
+        <v>59436</v>
+      </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="J16" s="130"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20">
+        <v>616466</v>
+      </c>
+      <c r="S16" s="130"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20">
         <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="137"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="169"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="170"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="121"/>
-    </row>
-    <row r="17" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="20"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="121"/>
+    </row>
+    <row r="17" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="130">
+        <v>44744</v>
+      </c>
+      <c r="C17" s="136">
+        <v>44746</v>
+      </c>
+      <c r="D17" s="20">
+        <v>39379.5</v>
+      </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="J17" s="130"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20">
+        <v>655845.5</v>
+      </c>
+      <c r="S17" s="130"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="20">
+        <v>-529362.74</v>
+      </c>
+      <c r="V17" s="20">
         <f t="shared" si="1"/>
-        <v>540817</v>
-      </c>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="137"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="121"/>
-    </row>
-    <row r="18" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="130"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="20"/>
+        <v>11454.260000000009</v>
+      </c>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="166"/>
+      <c r="AE17" s="168"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="121"/>
+    </row>
+    <row r="18" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="130">
+        <v>44745</v>
+      </c>
+      <c r="C18" s="136">
+        <v>44746</v>
+      </c>
+      <c r="D18" s="20">
+        <v>48212</v>
+      </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="J18" s="130"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20">
+        <v>704057.5</v>
+      </c>
+      <c r="S18" s="130"/>
+      <c r="T18" s="136"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20">
         <f t="shared" si="1"/>
-        <v>540817</v>
-      </c>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="121"/>
-    </row>
-    <row r="19" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11454.260000000009</v>
+      </c>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="166"/>
+      <c r="AE18" s="168"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="121"/>
+    </row>
+    <row r="19" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="130"/>
       <c r="C19" s="136"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="J19" s="130"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20">
+        <v>704057.5</v>
+      </c>
+      <c r="S19" s="130"/>
+      <c r="T19" s="196" t="s">
+        <v>95</v>
+      </c>
+      <c r="U19" s="197"/>
+      <c r="V19" s="77">
         <f t="shared" si="1"/>
-        <v>540817</v>
-      </c>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="137"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="168"/>
-      <c r="W19" s="169"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="170"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="121"/>
-    </row>
-    <row r="20" spans="2:27" ht="21" x14ac:dyDescent="0.35">
+        <v>11454.260000000009</v>
+      </c>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="166"/>
+      <c r="AE19" s="168"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="170"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="121"/>
+    </row>
+    <row r="20" spans="2:36" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="130"/>
       <c r="C20" s="136"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20">
+        <v>704057.5</v>
+      </c>
+      <c r="R20" s="121"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20">
         <f t="shared" si="1"/>
-        <v>540817</v>
-      </c>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="169"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="170"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="121"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+        <v>11454.260000000009</v>
+      </c>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="166"/>
+      <c r="AE20" s="168"/>
+      <c r="AF20" s="169"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="121"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21" s="130"/>
       <c r="C21" s="136"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20">
+        <v>704057.5</v>
+      </c>
+      <c r="R21" s="121"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20">
         <f t="shared" si="1"/>
-        <v>540817</v>
-      </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="168"/>
-      <c r="W21" s="169"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="170"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="121"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+        <v>11454.260000000009</v>
+      </c>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="166"/>
+      <c r="AE21" s="168"/>
+      <c r="AF21" s="169"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="170"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="121"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B22" s="130"/>
       <c r="C22" s="136"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="160">
-        <f t="shared" si="0"/>
-        <v>460385</v>
-      </c>
-      <c r="I22" s="121"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="160">
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+      <c r="R22" s="121"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="160">
         <f t="shared" si="1"/>
-        <v>540817</v>
-      </c>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="169"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="170"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="129"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+        <v>11454.260000000009</v>
+      </c>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="168"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="170"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="129"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B23" s="130"/>
       <c r="C23" s="136"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="121"/>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+      <c r="R23" s="121"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
       <c r="W23" s="121"/>
       <c r="X23" s="121"/>
       <c r="Y23" s="121"/>
-      <c r="Z23" s="174"/>
-      <c r="AA23" s="121"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="166"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="174"/>
+      <c r="AJ23" s="121"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B24" s="130"/>
       <c r="C24" s="136"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="137"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="121"/>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+      <c r="R24" s="121"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
       <c r="W24" s="121"/>
       <c r="X24" s="121"/>
       <c r="Y24" s="121"/>
-      <c r="Z24" s="121"/>
-      <c r="AA24" s="121"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B25" s="130"/>
       <c r="C25" s="136"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="22"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-    </row>
-    <row r="26" spans="2:27" ht="21" x14ac:dyDescent="0.35">
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="157"/>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+      <c r="R25" s="121"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+    </row>
+    <row r="26" spans="2:36" ht="21" x14ac:dyDescent="0.35">
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
       <c r="S26" s="157"/>
       <c r="T26" s="157"/>
-    </row>
-    <row r="28" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:27" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S39" s="162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S40" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S41" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="S42" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="S43" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="137"/>
-      <c r="S44" s="163">
-        <v>0</v>
-      </c>
-      <c r="T44" s="60"/>
-    </row>
-    <row r="45" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="121"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="137"/>
-      <c r="S45" s="163">
-        <v>0</v>
-      </c>
-      <c r="T45" s="60"/>
-    </row>
-    <row r="46" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="121"/>
-      <c r="L46" s="121"/>
-      <c r="M46" s="121"/>
-      <c r="N46" s="121"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="137"/>
-      <c r="S46" s="163">
-        <v>0</v>
-      </c>
-      <c r="T46" s="60"/>
-    </row>
-    <row r="47" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I47" s="121"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="121"/>
-      <c r="L47" s="121"/>
-      <c r="M47" s="121"/>
-      <c r="N47" s="121"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="137"/>
-      <c r="S47" s="163">
-        <v>0</v>
-      </c>
-      <c r="T47" s="60"/>
-    </row>
-    <row r="48" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="137"/>
-      <c r="S48" s="163">
-        <v>0</v>
-      </c>
-      <c r="T48" s="60"/>
-    </row>
-    <row r="49" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I49" s="121"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="121"/>
-      <c r="L49" s="121"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="137"/>
-      <c r="S49" s="163">
-        <v>0</v>
-      </c>
-      <c r="T49" s="60"/>
-    </row>
-    <row r="50" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I50" s="121"/>
-      <c r="J50" s="121"/>
-      <c r="K50" s="121"/>
-      <c r="L50" s="121"/>
-      <c r="M50" s="121"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="137"/>
-      <c r="S50" s="163">
-        <v>0</v>
-      </c>
-      <c r="T50" s="60"/>
-    </row>
-    <row r="51" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I51" s="121"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="121"/>
-      <c r="L51" s="121"/>
-      <c r="M51" s="121"/>
-      <c r="N51" s="121"/>
-      <c r="O51" s="121"/>
-      <c r="P51" s="121"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="137"/>
-      <c r="S51" s="163">
-        <v>0</v>
-      </c>
-      <c r="T51" s="60"/>
-    </row>
-    <row r="52" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I52" s="121"/>
-      <c r="J52" s="121"/>
-      <c r="K52" s="121"/>
-      <c r="L52" s="121"/>
-      <c r="M52" s="121"/>
-      <c r="N52" s="121"/>
-      <c r="O52" s="121"/>
-      <c r="P52" s="121"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="137"/>
-      <c r="S52" s="163">
-        <v>0</v>
-      </c>
-      <c r="T52" s="60"/>
-    </row>
-    <row r="53" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="121"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="137"/>
-      <c r="S53" s="163">
-        <v>0</v>
-      </c>
-      <c r="T53" s="60"/>
-    </row>
-    <row r="54" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
-      <c r="K54" s="121"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="121"/>
-      <c r="N54" s="121"/>
-      <c r="O54" s="121"/>
-      <c r="P54" s="121"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="137"/>
-      <c r="S54" s="163">
-        <v>0</v>
-      </c>
-      <c r="T54" s="60"/>
-    </row>
-    <row r="55" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I55" s="121"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="121"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="121"/>
-      <c r="N55" s="121"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="121"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="137"/>
-      <c r="S55" s="163">
-        <v>0</v>
-      </c>
-      <c r="T55" s="60"/>
-    </row>
-    <row r="56" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I56" s="121"/>
-      <c r="J56" s="121"/>
-      <c r="K56" s="121"/>
-      <c r="L56" s="121"/>
-      <c r="M56" s="121"/>
-      <c r="N56" s="121"/>
-      <c r="O56" s="121"/>
-      <c r="P56" s="121"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="137"/>
-      <c r="S56" s="163">
-        <v>0</v>
-      </c>
-      <c r="T56" s="60"/>
-    </row>
-    <row r="57" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I57" s="121"/>
-      <c r="J57" s="121"/>
-      <c r="K57" s="121"/>
-      <c r="L57" s="121"/>
-      <c r="M57" s="121"/>
-      <c r="N57" s="121"/>
-      <c r="O57" s="121"/>
-      <c r="P57" s="121"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="137"/>
-      <c r="S57" s="163">
-        <v>0</v>
-      </c>
-      <c r="T57" s="60"/>
-    </row>
-    <row r="58" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
-      <c r="N58" s="121"/>
-      <c r="O58" s="121"/>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="137"/>
-      <c r="S58" s="163">
-        <v>0</v>
-      </c>
-      <c r="T58" s="60"/>
-    </row>
-    <row r="59" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I59" s="121"/>
-      <c r="J59" s="121"/>
-      <c r="K59" s="121"/>
-      <c r="L59" s="121"/>
-      <c r="M59" s="121"/>
-      <c r="N59" s="121"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="121"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="137"/>
-      <c r="S59" s="163">
-        <v>0</v>
-      </c>
-      <c r="T59" s="60"/>
-    </row>
-    <row r="60" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="S60" s="163">
-        <v>0</v>
-      </c>
-      <c r="T60" s="60"/>
-    </row>
-    <row r="61" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="S61" s="163">
-        <v>0</v>
-      </c>
-      <c r="T61" s="129"/>
-    </row>
-    <row r="62" spans="9:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S62" s="162">
-        <v>0</v>
-      </c>
-      <c r="T62" s="121"/>
-    </row>
-    <row r="63" spans="9:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S63" s="191">
-        <f>SUM(S39:S62)</f>
-        <v>0</v>
-      </c>
-      <c r="T63" s="192"/>
-    </row>
-    <row r="68" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S68" s="54"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="157"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="157"/>
+      <c r="Z26" s="157"/>
+      <c r="AA26" s="157"/>
+      <c r="AB26" s="157"/>
+      <c r="AC26" s="157"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>704057.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="200" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="199">
+        <v>-1210693.69</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>-506636.18999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="198">
+        <f t="shared" si="0"/>
+        <v>-506636.18999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB39" s="193"/>
+    </row>
+    <row r="40" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB40" s="193"/>
+    </row>
+    <row r="41" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB41" s="193"/>
+    </row>
+    <row r="42" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="AB42" s="193"/>
+    </row>
+    <row r="43" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
+      <c r="Y43" s="121"/>
+      <c r="AB43" s="193"/>
+    </row>
+    <row r="44" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R44" s="121"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="121"/>
+      <c r="U44" s="121"/>
+      <c r="V44" s="121"/>
+      <c r="W44" s="121"/>
+      <c r="X44" s="121"/>
+      <c r="Y44" s="121"/>
+      <c r="Z44" s="101"/>
+      <c r="AA44" s="137"/>
+      <c r="AB44" s="193"/>
+      <c r="AC44" s="60"/>
+    </row>
+    <row r="45" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="121"/>
+      <c r="V45" s="121"/>
+      <c r="W45" s="121"/>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="121"/>
+      <c r="Z45" s="101"/>
+      <c r="AA45" s="137"/>
+      <c r="AB45" s="193"/>
+      <c r="AC45" s="60"/>
+    </row>
+    <row r="46" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R46" s="121"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="121"/>
+      <c r="V46" s="121"/>
+      <c r="W46" s="121"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="137"/>
+      <c r="AB46" s="193"/>
+      <c r="AC46" s="60"/>
+    </row>
+    <row r="47" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R47" s="121"/>
+      <c r="S47" s="121"/>
+      <c r="T47" s="121"/>
+      <c r="U47" s="121"/>
+      <c r="V47" s="121"/>
+      <c r="W47" s="121"/>
+      <c r="X47" s="121"/>
+      <c r="Y47" s="121"/>
+      <c r="Z47" s="101"/>
+      <c r="AA47" s="137"/>
+      <c r="AB47" s="193"/>
+      <c r="AC47" s="60"/>
+    </row>
+    <row r="48" spans="3:29" x14ac:dyDescent="0.3">
+      <c r="R48" s="121"/>
+      <c r="S48" s="121"/>
+      <c r="T48" s="121"/>
+      <c r="U48" s="121"/>
+      <c r="V48" s="121"/>
+      <c r="W48" s="121"/>
+      <c r="X48" s="121"/>
+      <c r="Y48" s="121"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="137"/>
+      <c r="AB48" s="193"/>
+      <c r="AC48" s="60"/>
+    </row>
+    <row r="49" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R49" s="121"/>
+      <c r="S49" s="121"/>
+      <c r="T49" s="121"/>
+      <c r="U49" s="121"/>
+      <c r="V49" s="121"/>
+      <c r="W49" s="121"/>
+      <c r="X49" s="121"/>
+      <c r="Y49" s="121"/>
+      <c r="Z49" s="101"/>
+      <c r="AA49" s="137"/>
+      <c r="AB49" s="193"/>
+      <c r="AC49" s="60"/>
+    </row>
+    <row r="50" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R50" s="121"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="121"/>
+      <c r="U50" s="121"/>
+      <c r="V50" s="121"/>
+      <c r="W50" s="121"/>
+      <c r="X50" s="121"/>
+      <c r="Y50" s="121"/>
+      <c r="Z50" s="101"/>
+      <c r="AA50" s="137"/>
+      <c r="AB50" s="193"/>
+      <c r="AC50" s="60"/>
+    </row>
+    <row r="51" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R51" s="121"/>
+      <c r="S51" s="121"/>
+      <c r="T51" s="121"/>
+      <c r="U51" s="121"/>
+      <c r="V51" s="121"/>
+      <c r="W51" s="121"/>
+      <c r="X51" s="121"/>
+      <c r="Y51" s="121"/>
+      <c r="Z51" s="101"/>
+      <c r="AA51" s="137"/>
+      <c r="AB51" s="193"/>
+      <c r="AC51" s="60"/>
+    </row>
+    <row r="52" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R52" s="121"/>
+      <c r="S52" s="121"/>
+      <c r="T52" s="121"/>
+      <c r="U52" s="121"/>
+      <c r="V52" s="121"/>
+      <c r="W52" s="121"/>
+      <c r="X52" s="121"/>
+      <c r="Y52" s="121"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="137"/>
+      <c r="AB52" s="193"/>
+      <c r="AC52" s="60"/>
+    </row>
+    <row r="53" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
+      <c r="T53" s="121"/>
+      <c r="U53" s="121"/>
+      <c r="V53" s="121"/>
+      <c r="W53" s="121"/>
+      <c r="X53" s="121"/>
+      <c r="Y53" s="121"/>
+      <c r="Z53" s="101"/>
+      <c r="AA53" s="137"/>
+      <c r="AB53" s="193"/>
+      <c r="AC53" s="60"/>
+    </row>
+    <row r="54" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R54" s="121"/>
+      <c r="S54" s="121"/>
+      <c r="T54" s="121"/>
+      <c r="U54" s="121"/>
+      <c r="V54" s="121"/>
+      <c r="W54" s="121"/>
+      <c r="X54" s="121"/>
+      <c r="Y54" s="121"/>
+      <c r="Z54" s="101"/>
+      <c r="AA54" s="137"/>
+      <c r="AB54" s="193"/>
+      <c r="AC54" s="60"/>
+    </row>
+    <row r="55" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R55" s="121"/>
+      <c r="S55" s="121"/>
+      <c r="T55" s="121"/>
+      <c r="U55" s="121"/>
+      <c r="V55" s="121"/>
+      <c r="W55" s="121"/>
+      <c r="X55" s="121"/>
+      <c r="Y55" s="121"/>
+      <c r="Z55" s="101"/>
+      <c r="AA55" s="137"/>
+      <c r="AB55" s="193"/>
+      <c r="AC55" s="60"/>
+    </row>
+    <row r="56" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R56" s="121"/>
+      <c r="S56" s="121"/>
+      <c r="T56" s="121"/>
+      <c r="U56" s="121"/>
+      <c r="V56" s="121"/>
+      <c r="W56" s="121"/>
+      <c r="X56" s="121"/>
+      <c r="Y56" s="121"/>
+      <c r="Z56" s="101"/>
+      <c r="AA56" s="137"/>
+      <c r="AB56" s="193"/>
+      <c r="AC56" s="60"/>
+    </row>
+    <row r="57" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R57" s="121"/>
+      <c r="S57" s="121"/>
+      <c r="T57" s="121"/>
+      <c r="U57" s="121"/>
+      <c r="V57" s="121"/>
+      <c r="W57" s="121"/>
+      <c r="X57" s="121"/>
+      <c r="Y57" s="121"/>
+      <c r="Z57" s="101"/>
+      <c r="AA57" s="137"/>
+      <c r="AB57" s="193"/>
+      <c r="AC57" s="60"/>
+    </row>
+    <row r="58" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="121"/>
+      <c r="U58" s="121"/>
+      <c r="V58" s="121"/>
+      <c r="W58" s="121"/>
+      <c r="X58" s="121"/>
+      <c r="Y58" s="121"/>
+      <c r="Z58" s="101"/>
+      <c r="AA58" s="137"/>
+      <c r="AB58" s="193"/>
+      <c r="AC58" s="60"/>
+    </row>
+    <row r="59" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R59" s="121"/>
+      <c r="S59" s="121"/>
+      <c r="T59" s="121"/>
+      <c r="U59" s="121"/>
+      <c r="V59" s="121"/>
+      <c r="W59" s="121"/>
+      <c r="X59" s="121"/>
+      <c r="Y59" s="121"/>
+      <c r="Z59" s="101"/>
+      <c r="AA59" s="137"/>
+      <c r="AB59" s="193"/>
+      <c r="AC59" s="60"/>
+    </row>
+    <row r="60" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="AB60" s="193"/>
+      <c r="AC60" s="60"/>
+    </row>
+    <row r="61" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="AB61" s="193"/>
+      <c r="AC61" s="129"/>
+    </row>
+    <row r="62" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB62" s="193"/>
+      <c r="AC62" s="121"/>
+    </row>
+    <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB63" s="194"/>
+      <c r="AC63" s="195"/>
+    </row>
+    <row r="68" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB68" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="S63:T63"/>
+  <mergeCells count="3">
+    <mergeCell ref="R1:AC1"/>
+    <mergeCell ref="AB63:AC63"/>
+    <mergeCell ref="T19:U19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/CREDITOS  4 CARNES   ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -1417,6 +1417,12 @@
     <xf numFmtId="44" fontId="15" fillId="16" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1462,7 +1468,6 @@
     <xf numFmtId="7" fontId="23" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="7" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,11 +1479,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3061,24 +3061,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="185"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="189"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4224,12 +4224,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="179">
+      <c r="D55" s="183">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="180"/>
-      <c r="F55" s="181"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="185"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4243,11 +4243,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="182" t="s">
+      <c r="D57" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="182"/>
-      <c r="F57" s="182"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="186"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4358,8 +4358,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4376,25 +4376,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="192"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5281,9 +5281,7 @@
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
-      <c r="B43" s="13">
-        <v>413</v>
-      </c>
+      <c r="B43" s="13"/>
       <c r="C43" s="24"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
@@ -5296,9 +5294,7 @@
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
-      <c r="B44" s="13">
-        <v>414</v>
-      </c>
+      <c r="B44" s="13"/>
       <c r="C44" s="24"/>
       <c r="D44" s="19"/>
       <c r="E44" s="20"/>
@@ -5311,9 +5307,7 @@
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
-      <c r="B45" s="13">
-        <v>415</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="24"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20"/>
@@ -5326,9 +5320,7 @@
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
-      <c r="B46" s="13">
-        <v>416</v>
-      </c>
+      <c r="B46" s="13"/>
       <c r="C46" s="24"/>
       <c r="D46" s="19"/>
       <c r="E46" s="20"/>
@@ -5341,9 +5333,7 @@
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
-      <c r="B47" s="13">
-        <v>417</v>
-      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="24"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
@@ -5356,9 +5346,7 @@
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
-      <c r="B48" s="13">
-        <v>418</v>
-      </c>
+      <c r="B48" s="13"/>
       <c r="C48" s="24"/>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
@@ -5371,9 +5359,7 @@
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
-      <c r="B49" s="13">
-        <v>419</v>
-      </c>
+      <c r="B49" s="13"/>
       <c r="C49" s="24"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
@@ -5386,9 +5372,7 @@
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
-      <c r="B50" s="13">
-        <v>420</v>
-      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="24"/>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
@@ -5401,9 +5385,7 @@
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
-      <c r="B51" s="13">
-        <v>421</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="24"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
@@ -5416,9 +5398,7 @@
     </row>
     <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
-      <c r="B52" s="13">
-        <v>422</v>
-      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="24"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
@@ -5431,9 +5411,7 @@
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
-      <c r="B53" s="13">
-        <v>423</v>
-      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="24"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20"/>
@@ -5446,9 +5424,7 @@
     </row>
     <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
-      <c r="B54" s="13">
-        <v>424</v>
-      </c>
+      <c r="B54" s="13"/>
       <c r="C54" s="24"/>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
@@ -5545,12 +5521,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="179">
+      <c r="E61" s="183">
         <f>E57-G57</f>
         <v>540708</v>
       </c>
-      <c r="F61" s="180"/>
-      <c r="G61" s="181"/>
+      <c r="F61" s="184"/>
+      <c r="G61" s="185"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5566,11 +5542,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="182" t="s">
+      <c r="E63" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="182"/>
-      <c r="G63" s="182"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="186"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5736,7 +5712,7 @@
   </sheetPr>
   <dimension ref="B1:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -5767,18 +5743,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="189"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="194"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -6423,10 +6399,10 @@
         <v>704057.5</v>
       </c>
       <c r="S19" s="130"/>
-      <c r="T19" s="196" t="s">
+      <c r="T19" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="197"/>
+      <c r="U19" s="200"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -6673,10 +6649,10 @@
       </c>
     </row>
     <row r="34" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="200" t="s">
+      <c r="C34" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="180">
         <v>-1210693.69</v>
       </c>
       <c r="E34" s="20">
@@ -6685,7 +6661,7 @@
       </c>
     </row>
     <row r="35" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="198">
+      <c r="E35" s="179">
         <f t="shared" si="0"/>
         <v>-506636.18999999994</v>
       </c>
@@ -6694,16 +6670,16 @@
     <row r="37" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB39" s="193"/>
+      <c r="AB39" s="178"/>
     </row>
     <row r="40" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB40" s="193"/>
+      <c r="AB40" s="178"/>
     </row>
     <row r="41" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB41" s="193"/>
+      <c r="AB41" s="178"/>
     </row>
     <row r="42" spans="3:29" x14ac:dyDescent="0.3">
-      <c r="AB42" s="193"/>
+      <c r="AB42" s="178"/>
     </row>
     <row r="43" spans="3:29" x14ac:dyDescent="0.3">
       <c r="R43" s="121"/>
@@ -6714,7 +6690,7 @@
       <c r="W43" s="121"/>
       <c r="X43" s="121"/>
       <c r="Y43" s="121"/>
-      <c r="AB43" s="193"/>
+      <c r="AB43" s="178"/>
     </row>
     <row r="44" spans="3:29" x14ac:dyDescent="0.3">
       <c r="R44" s="121"/>
@@ -6727,7 +6703,7 @@
       <c r="Y44" s="121"/>
       <c r="Z44" s="101"/>
       <c r="AA44" s="137"/>
-      <c r="AB44" s="193"/>
+      <c r="AB44" s="178"/>
       <c r="AC44" s="60"/>
     </row>
     <row r="45" spans="3:29" x14ac:dyDescent="0.3">
@@ -6741,7 +6717,7 @@
       <c r="Y45" s="121"/>
       <c r="Z45" s="101"/>
       <c r="AA45" s="137"/>
-      <c r="AB45" s="193"/>
+      <c r="AB45" s="178"/>
       <c r="AC45" s="60"/>
     </row>
     <row r="46" spans="3:29" x14ac:dyDescent="0.3">
@@ -6755,7 +6731,7 @@
       <c r="Y46" s="121"/>
       <c r="Z46" s="101"/>
       <c r="AA46" s="137"/>
-      <c r="AB46" s="193"/>
+      <c r="AB46" s="178"/>
       <c r="AC46" s="60"/>
     </row>
     <row r="47" spans="3:29" x14ac:dyDescent="0.3">
@@ -6769,7 +6745,7 @@
       <c r="Y47" s="121"/>
       <c r="Z47" s="101"/>
       <c r="AA47" s="137"/>
-      <c r="AB47" s="193"/>
+      <c r="AB47" s="178"/>
       <c r="AC47" s="60"/>
     </row>
     <row r="48" spans="3:29" x14ac:dyDescent="0.3">
@@ -6783,7 +6759,7 @@
       <c r="Y48" s="121"/>
       <c r="Z48" s="101"/>
       <c r="AA48" s="137"/>
-      <c r="AB48" s="193"/>
+      <c r="AB48" s="178"/>
       <c r="AC48" s="60"/>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.3">
@@ -6797,7 +6773,7 @@
       <c r="Y49" s="121"/>
       <c r="Z49" s="101"/>
       <c r="AA49" s="137"/>
-      <c r="AB49" s="193"/>
+      <c r="AB49" s="178"/>
       <c r="AC49" s="60"/>
     </row>
     <row r="50" spans="18:29" x14ac:dyDescent="0.3">
@@ -6811,7 +6787,7 @@
       <c r="Y50" s="121"/>
       <c r="Z50" s="101"/>
       <c r="AA50" s="137"/>
-      <c r="AB50" s="193"/>
+      <c r="AB50" s="178"/>
       <c r="AC50" s="60"/>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.3">
@@ -6825,7 +6801,7 @@
       <c r="Y51" s="121"/>
       <c r="Z51" s="101"/>
       <c r="AA51" s="137"/>
-      <c r="AB51" s="193"/>
+      <c r="AB51" s="178"/>
       <c r="AC51" s="60"/>
     </row>
     <row r="52" spans="18:29" x14ac:dyDescent="0.3">
@@ -6839,7 +6815,7 @@
       <c r="Y52" s="121"/>
       <c r="Z52" s="101"/>
       <c r="AA52" s="137"/>
-      <c r="AB52" s="193"/>
+      <c r="AB52" s="178"/>
       <c r="AC52" s="60"/>
     </row>
     <row r="53" spans="18:29" x14ac:dyDescent="0.3">
@@ -6853,7 +6829,7 @@
       <c r="Y53" s="121"/>
       <c r="Z53" s="101"/>
       <c r="AA53" s="137"/>
-      <c r="AB53" s="193"/>
+      <c r="AB53" s="178"/>
       <c r="AC53" s="60"/>
     </row>
     <row r="54" spans="18:29" x14ac:dyDescent="0.3">
@@ -6867,7 +6843,7 @@
       <c r="Y54" s="121"/>
       <c r="Z54" s="101"/>
       <c r="AA54" s="137"/>
-      <c r="AB54" s="193"/>
+      <c r="AB54" s="178"/>
       <c r="AC54" s="60"/>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.3">
@@ -6881,7 +6857,7 @@
       <c r="Y55" s="121"/>
       <c r="Z55" s="101"/>
       <c r="AA55" s="137"/>
-      <c r="AB55" s="193"/>
+      <c r="AB55" s="178"/>
       <c r="AC55" s="60"/>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.3">
@@ -6895,7 +6871,7 @@
       <c r="Y56" s="121"/>
       <c r="Z56" s="101"/>
       <c r="AA56" s="137"/>
-      <c r="AB56" s="193"/>
+      <c r="AB56" s="178"/>
       <c r="AC56" s="60"/>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.3">
@@ -6909,7 +6885,7 @@
       <c r="Y57" s="121"/>
       <c r="Z57" s="101"/>
       <c r="AA57" s="137"/>
-      <c r="AB57" s="193"/>
+      <c r="AB57" s="178"/>
       <c r="AC57" s="60"/>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.3">
@@ -6923,7 +6899,7 @@
       <c r="Y58" s="121"/>
       <c r="Z58" s="101"/>
       <c r="AA58" s="137"/>
-      <c r="AB58" s="193"/>
+      <c r="AB58" s="178"/>
       <c r="AC58" s="60"/>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.3">
@@ -6937,24 +6913,24 @@
       <c r="Y59" s="121"/>
       <c r="Z59" s="101"/>
       <c r="AA59" s="137"/>
-      <c r="AB59" s="193"/>
+      <c r="AB59" s="178"/>
       <c r="AC59" s="60"/>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB60" s="193"/>
+      <c r="AB60" s="178"/>
       <c r="AC60" s="60"/>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB61" s="193"/>
+      <c r="AB61" s="178"/>
       <c r="AC61" s="129"/>
     </row>
     <row r="62" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB62" s="193"/>
+      <c r="AB62" s="178"/>
       <c r="AC62" s="121"/>
     </row>
     <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB63" s="194"/>
-      <c r="AC63" s="195"/>
+      <c r="AB63" s="197"/>
+      <c r="AC63" s="198"/>
     </row>
     <row r="68" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB68" s="54"/>
@@ -7053,25 +7029,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="185"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="189"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8801,12 +8777,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="179">
+      <c r="E76" s="183">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="180"/>
-      <c r="G76" s="181"/>
+      <c r="F76" s="184"/>
+      <c r="G76" s="185"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -8822,11 +8798,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="182" t="s">
+      <c r="E78" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="182"/>
-      <c r="G78" s="182"/>
+      <c r="F78" s="186"/>
+      <c r="G78" s="186"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -8967,25 +8943,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="185"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="189"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9834,12 +9810,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="179">
+      <c r="E41" s="183">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="180"/>
-      <c r="G41" s="181"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="185"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -9855,11 +9831,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="182" t="s">
+      <c r="E43" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10003,25 +9979,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="192"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11361,12 +11337,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="179">
+      <c r="E60" s="183">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="180"/>
-      <c r="G60" s="181"/>
+      <c r="F60" s="184"/>
+      <c r="G60" s="185"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11382,11 +11358,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="182" t="s">
+      <c r="E62" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="182"/>
-      <c r="G62" s="182"/>
+      <c r="F62" s="186"/>
+      <c r="G62" s="186"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11527,25 +11503,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="192"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12946,12 +12922,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="179">
+      <c r="E61" s="183">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="180"/>
-      <c r="G61" s="181"/>
+      <c r="F61" s="184"/>
+      <c r="G61" s="185"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -12967,11 +12943,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="182" t="s">
+      <c r="E63" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="182"/>
-      <c r="G63" s="182"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="186"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -13112,25 +13088,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="192"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14580,12 +14556,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="179">
+      <c r="E64" s="183">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="180"/>
-      <c r="G64" s="181"/>
+      <c r="F64" s="184"/>
+      <c r="G64" s="185"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -14601,11 +14577,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="182" t="s">
+      <c r="E66" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="182"/>
-      <c r="G66" s="182"/>
+      <c r="F66" s="186"/>
+      <c r="G66" s="186"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -14746,25 +14722,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="192"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16165,12 +16141,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="179">
+      <c r="E65" s="183">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="180"/>
-      <c r="G65" s="181"/>
+      <c r="F65" s="184"/>
+      <c r="G65" s="185"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16186,11 +16162,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="182" t="s">
+      <c r="E67" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="182"/>
-      <c r="G67" s="182"/>
+      <c r="F67" s="186"/>
+      <c r="G67" s="186"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -16372,25 +16348,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="192"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17269,12 +17245,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="179">
+      <c r="E43" s="183">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="180"/>
-      <c r="G43" s="181"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="185"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -17290,11 +17266,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="182" t="s">
+      <c r="E45" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="182"/>
-      <c r="G45" s="182"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -17480,18 +17456,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="189"/>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
+      <c r="A1" s="193"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -18730,11 +18706,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="191">
+      <c r="K63" s="195">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="192"/>
+      <c r="L63" s="196"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>
